--- a/data.xlsx
+++ b/data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Downloads\Consolidated\Consolidated\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\self\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13DD1A30-D147-4E7E-A7B7-28442C43DEFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18CF4905-DD7C-410A-87AD-C9F6F46145BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8880" tabRatio="885" firstSheet="15" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="885" firstSheet="15" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Alumni Lecture" sheetId="1" r:id="rId1"/>
@@ -2372,13 +2372,13 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2955,7 +2955,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="28" t="s">
+      <c r="A8" s="29" t="s">
         <v>210</v>
       </c>
       <c r="B8" s="13">
@@ -2969,7 +2969,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="28"/>
+      <c r="A9" s="29"/>
       <c r="B9" s="13">
         <v>3</v>
       </c>
@@ -3066,7 +3066,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="29" t="s">
         <v>629</v>
       </c>
       <c r="B3" s="24">
@@ -3095,7 +3095,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="28"/>
+      <c r="A4" s="29"/>
       <c r="B4" s="24">
         <v>3</v>
       </c>
@@ -3481,7 +3481,7 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="29" t="s">
         <v>325</v>
       </c>
       <c r="B6" s="13">
@@ -3519,7 +3519,7 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="28"/>
+      <c r="A7" s="29"/>
       <c r="B7" s="13">
         <v>2</v>
       </c>
@@ -3696,7 +3696,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A6:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
@@ -3806,7 +3806,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="28" t="s">
+      <c r="A9" s="29" t="s">
         <v>141</v>
       </c>
       <c r="B9" s="13">
@@ -3838,7 +3838,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="28"/>
+      <c r="A10" s="29"/>
       <c r="B10" s="19">
         <v>4</v>
       </c>
@@ -3868,7 +3868,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="28" t="s">
+      <c r="A11" s="29" t="s">
         <v>210</v>
       </c>
       <c r="B11" s="19">
@@ -3900,7 +3900,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="28"/>
+      <c r="A12" s="29"/>
       <c r="B12" s="13">
         <v>6</v>
       </c>
@@ -4090,7 +4090,7 @@
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="28" t="s">
+      <c r="A18" s="29" t="s">
         <v>593</v>
       </c>
       <c r="B18" s="13">
@@ -4122,7 +4122,7 @@
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="28"/>
+      <c r="A19" s="29"/>
       <c r="B19" s="19">
         <v>13</v>
       </c>
@@ -4216,7 +4216,7 @@
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="28" t="s">
+      <c r="A22" s="29" t="s">
         <v>681</v>
       </c>
       <c r="B22" s="19">
@@ -4248,7 +4248,7 @@
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="28"/>
+      <c r="A23" s="29"/>
       <c r="B23" s="19">
         <v>17</v>
       </c>
@@ -4549,7 +4549,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="29" t="s">
         <v>88</v>
       </c>
       <c r="B7" s="19">
@@ -4575,7 +4575,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="28"/>
+      <c r="A8" s="29"/>
       <c r="B8" s="19">
         <v>2</v>
       </c>
@@ -4599,7 +4599,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="28"/>
+      <c r="A9" s="29"/>
       <c r="B9" s="19">
         <v>3</v>
       </c>
@@ -4623,7 +4623,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="28" t="s">
+      <c r="A10" s="29" t="s">
         <v>131</v>
       </c>
       <c r="B10" s="19">
@@ -4649,7 +4649,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="28"/>
+      <c r="A11" s="29"/>
       <c r="B11" s="19">
         <v>5</v>
       </c>
@@ -4673,7 +4673,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="28" t="s">
+      <c r="A12" s="29" t="s">
         <v>141</v>
       </c>
       <c r="B12" s="19">
@@ -4699,7 +4699,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="28"/>
+      <c r="A13" s="29"/>
       <c r="B13" s="19">
         <v>7</v>
       </c>
@@ -4749,7 +4749,7 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="28" t="s">
+      <c r="A15" s="29" t="s">
         <v>267</v>
       </c>
       <c r="B15" s="19">
@@ -4775,7 +4775,7 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="28"/>
+      <c r="A16" s="29"/>
       <c r="B16" s="19">
         <v>10</v>
       </c>
@@ -4799,7 +4799,7 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="28" t="s">
+      <c r="A17" s="29" t="s">
         <v>295</v>
       </c>
       <c r="B17" s="19">
@@ -4825,7 +4825,7 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="28"/>
+      <c r="A18" s="29"/>
       <c r="B18" s="19">
         <v>12</v>
       </c>
@@ -4901,7 +4901,7 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="28" t="s">
+      <c r="A21" s="29" t="s">
         <v>174</v>
       </c>
       <c r="B21" s="19">
@@ -4927,7 +4927,7 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="28"/>
+      <c r="A22" s="29"/>
       <c r="B22" s="19">
         <v>16</v>
       </c>
@@ -5003,7 +5003,7 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="28" t="s">
+      <c r="A25" s="29" t="s">
         <v>681</v>
       </c>
       <c r="B25" s="19">
@@ -5029,7 +5029,7 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="28"/>
+      <c r="A26" s="29"/>
       <c r="B26" s="19">
         <v>20</v>
       </c>
@@ -5053,7 +5053,7 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="28"/>
+      <c r="A27" s="29"/>
       <c r="B27" s="19">
         <v>21</v>
       </c>
@@ -5309,7 +5309,7 @@
       <c r="L5" s="5"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="29" t="s">
         <v>88</v>
       </c>
       <c r="B6" s="19">
@@ -5335,7 +5335,7 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="28"/>
+      <c r="A7" s="29"/>
       <c r="B7" s="19">
         <v>2</v>
       </c>
@@ -5359,7 +5359,7 @@
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="28"/>
+      <c r="A8" s="29"/>
       <c r="B8" s="19">
         <v>3</v>
       </c>
@@ -5383,7 +5383,7 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="28" t="s">
+      <c r="A9" s="29" t="s">
         <v>131</v>
       </c>
       <c r="B9" s="19">
@@ -5409,7 +5409,7 @@
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="28"/>
+      <c r="A10" s="29"/>
       <c r="B10" s="19">
         <v>5</v>
       </c>
@@ -5433,7 +5433,7 @@
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="28"/>
+      <c r="A11" s="29"/>
       <c r="B11" s="19">
         <v>6</v>
       </c>
@@ -5457,7 +5457,7 @@
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="28" t="s">
+      <c r="A12" s="29" t="s">
         <v>141</v>
       </c>
       <c r="B12" s="19">
@@ -5483,7 +5483,7 @@
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="28"/>
+      <c r="A13" s="29"/>
       <c r="B13" s="19">
         <v>8</v>
       </c>
@@ -5507,7 +5507,7 @@
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" s="28"/>
+      <c r="A14" s="29"/>
       <c r="B14" s="19">
         <v>9</v>
       </c>
@@ -5531,7 +5531,7 @@
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="28" t="s">
+      <c r="A15" s="29" t="s">
         <v>210</v>
       </c>
       <c r="B15" s="19">
@@ -5557,7 +5557,7 @@
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="28"/>
+      <c r="A16" s="29"/>
       <c r="B16" s="19">
         <v>11</v>
       </c>
@@ -5581,7 +5581,7 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="28"/>
+      <c r="A17" s="29"/>
       <c r="B17" s="19">
         <v>12</v>
       </c>
@@ -5605,7 +5605,7 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="28" t="s">
+      <c r="A18" s="29" t="s">
         <v>267</v>
       </c>
       <c r="B18" s="19">
@@ -5631,7 +5631,7 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="28"/>
+      <c r="A19" s="29"/>
       <c r="B19" s="19">
         <v>14</v>
       </c>
@@ -5655,7 +5655,7 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="28"/>
+      <c r="A20" s="29"/>
       <c r="B20" s="19">
         <v>15</v>
       </c>
@@ -5679,7 +5679,7 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="28" t="s">
+      <c r="A21" s="29" t="s">
         <v>295</v>
       </c>
       <c r="B21" s="19">
@@ -5705,7 +5705,7 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="28"/>
+      <c r="A22" s="29"/>
       <c r="B22" s="19">
         <v>17</v>
       </c>
@@ -5729,7 +5729,7 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="28"/>
+      <c r="A23" s="29"/>
       <c r="B23" s="19">
         <v>18</v>
       </c>
@@ -5753,7 +5753,7 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="28"/>
+      <c r="A24" s="29"/>
       <c r="B24" s="19">
         <v>19</v>
       </c>
@@ -5777,7 +5777,7 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="28" t="s">
+      <c r="A25" s="29" t="s">
         <v>325</v>
       </c>
       <c r="B25" s="19">
@@ -5803,7 +5803,7 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="28"/>
+      <c r="A26" s="29"/>
       <c r="B26" s="19">
         <v>21</v>
       </c>
@@ -5827,7 +5827,7 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="28"/>
+      <c r="A27" s="29"/>
       <c r="B27" s="19">
         <v>22</v>
       </c>
@@ -5851,7 +5851,7 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="28"/>
+      <c r="A28" s="29"/>
       <c r="B28" s="19">
         <v>23</v>
       </c>
@@ -5875,7 +5875,7 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="28"/>
+      <c r="A29" s="29"/>
       <c r="B29" s="19">
         <v>24</v>
       </c>
@@ -5925,7 +5925,7 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="28" t="s">
+      <c r="A31" s="29" t="s">
         <v>402</v>
       </c>
       <c r="B31" s="19">
@@ -5951,7 +5951,7 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="28"/>
+      <c r="A32" s="29"/>
       <c r="B32" s="19">
         <v>27</v>
       </c>
@@ -5975,7 +5975,7 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" s="28"/>
+      <c r="A33" s="29"/>
       <c r="B33" s="19">
         <v>28</v>
       </c>
@@ -5999,7 +5999,7 @@
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" s="28"/>
+      <c r="A34" s="29"/>
       <c r="B34" s="19">
         <v>29</v>
       </c>
@@ -6023,7 +6023,7 @@
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35" s="28" t="s">
+      <c r="A35" s="29" t="s">
         <v>435</v>
       </c>
       <c r="B35" s="19">
@@ -6049,7 +6049,7 @@
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" s="28"/>
+      <c r="A36" s="29"/>
       <c r="B36" s="19">
         <v>31</v>
       </c>
@@ -6073,7 +6073,7 @@
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" s="28"/>
+      <c r="A37" s="29"/>
       <c r="B37" s="19">
         <v>32</v>
       </c>
@@ -6123,7 +6123,7 @@
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A39" s="28" t="s">
+      <c r="A39" s="29" t="s">
         <v>174</v>
       </c>
       <c r="B39" s="19">
@@ -6149,7 +6149,7 @@
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A40" s="28"/>
+      <c r="A40" s="29"/>
       <c r="B40" s="19">
         <v>35</v>
       </c>
@@ -6173,7 +6173,7 @@
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A41" s="28" t="s">
+      <c r="A41" s="29" t="s">
         <v>531</v>
       </c>
       <c r="B41" s="19">
@@ -6199,7 +6199,7 @@
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A42" s="28"/>
+      <c r="A42" s="29"/>
       <c r="B42" s="19">
         <v>37</v>
       </c>
@@ -6223,7 +6223,7 @@
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A43" s="28"/>
+      <c r="A43" s="29"/>
       <c r="B43" s="19">
         <v>38</v>
       </c>
@@ -6247,7 +6247,7 @@
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A44" s="28" t="s">
+      <c r="A44" s="29" t="s">
         <v>555</v>
       </c>
       <c r="B44" s="19">
@@ -6273,7 +6273,7 @@
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A45" s="28"/>
+      <c r="A45" s="29"/>
       <c r="B45" s="19">
         <v>40</v>
       </c>
@@ -6297,7 +6297,7 @@
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A46" s="28" t="s">
+      <c r="A46" s="29" t="s">
         <v>593</v>
       </c>
       <c r="B46" s="19">
@@ -6323,7 +6323,7 @@
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A47" s="28"/>
+      <c r="A47" s="29"/>
       <c r="B47" s="19">
         <v>42</v>
       </c>
@@ -6347,7 +6347,7 @@
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A48" s="28"/>
+      <c r="A48" s="29"/>
       <c r="B48" s="19">
         <v>43</v>
       </c>
@@ -6371,7 +6371,7 @@
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A49" s="28"/>
+      <c r="A49" s="29"/>
       <c r="B49" s="19">
         <v>44</v>
       </c>
@@ -6395,7 +6395,7 @@
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A50" s="28"/>
+      <c r="A50" s="29"/>
       <c r="B50" s="19">
         <v>45</v>
       </c>
@@ -6419,7 +6419,7 @@
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A51" s="28"/>
+      <c r="A51" s="29"/>
       <c r="B51" s="19">
         <v>46</v>
       </c>
@@ -6443,7 +6443,7 @@
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A52" s="28"/>
+      <c r="A52" s="29"/>
       <c r="B52" s="19">
         <v>47</v>
       </c>
@@ -6467,7 +6467,7 @@
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A53" s="28" t="s">
+      <c r="A53" s="29" t="s">
         <v>629</v>
       </c>
       <c r="B53" s="19">
@@ -6493,7 +6493,7 @@
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A54" s="28"/>
+      <c r="A54" s="29"/>
       <c r="B54" s="19">
         <v>49</v>
       </c>
@@ -6517,7 +6517,7 @@
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A55" s="28"/>
+      <c r="A55" s="29"/>
       <c r="B55" s="19">
         <v>50</v>
       </c>
@@ -6541,7 +6541,7 @@
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A56" s="28"/>
+      <c r="A56" s="29"/>
       <c r="B56" s="19">
         <v>51</v>
       </c>
@@ -6565,7 +6565,7 @@
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A57" s="28"/>
+      <c r="A57" s="29"/>
       <c r="B57" s="19">
         <v>52</v>
       </c>
@@ -6589,7 +6589,7 @@
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A58" s="28"/>
+      <c r="A58" s="29"/>
       <c r="B58" s="19">
         <v>53</v>
       </c>
@@ -6613,7 +6613,7 @@
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A59" s="28"/>
+      <c r="A59" s="29"/>
       <c r="B59" s="19">
         <v>54</v>
       </c>
@@ -6637,7 +6637,7 @@
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A60" s="28"/>
+      <c r="A60" s="29"/>
       <c r="B60" s="19">
         <v>55</v>
       </c>
@@ -6661,7 +6661,7 @@
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A61" s="28" t="s">
+      <c r="A61" s="29" t="s">
         <v>658</v>
       </c>
       <c r="B61" s="19">
@@ -6687,7 +6687,7 @@
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A62" s="28"/>
+      <c r="A62" s="29"/>
       <c r="B62" s="19">
         <v>57</v>
       </c>
@@ -6711,7 +6711,7 @@
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A63" s="28" t="s">
+      <c r="A63" s="29" t="s">
         <v>681</v>
       </c>
       <c r="B63" s="19">
@@ -6737,7 +6737,7 @@
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A64" s="28"/>
+      <c r="A64" s="29"/>
       <c r="B64" s="19">
         <v>59</v>
       </c>
@@ -6761,7 +6761,7 @@
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A65" s="28"/>
+      <c r="A65" s="29"/>
       <c r="B65" s="19">
         <v>60</v>
       </c>
@@ -6785,7 +6785,7 @@
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A66" s="28"/>
+      <c r="A66" s="29"/>
       <c r="B66" s="19">
         <v>61</v>
       </c>
@@ -6810,22 +6810,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="A25:A29"/>
-    <mergeCell ref="A31:A34"/>
-    <mergeCell ref="A35:A37"/>
-    <mergeCell ref="A39:A40"/>
     <mergeCell ref="A63:A66"/>
     <mergeCell ref="A41:A43"/>
     <mergeCell ref="A44:A45"/>
     <mergeCell ref="A46:A52"/>
     <mergeCell ref="A53:A60"/>
     <mergeCell ref="A61:A62"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="A25:A29"/>
+    <mergeCell ref="A31:A34"/>
+    <mergeCell ref="A35:A37"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="A18:A20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6927,8 +6927,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A6:N12"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6991,7 +6991,7 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="30" t="s">
+      <c r="A7" s="28" t="s">
         <v>377</v>
       </c>
       <c r="B7" s="13">
@@ -7035,7 +7035,7 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" s="30"/>
+      <c r="A8" s="28"/>
       <c r="B8" s="13">
         <v>2</v>
       </c>
@@ -7121,7 +7121,7 @@
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" s="30" t="s">
+      <c r="A10" s="28" t="s">
         <v>681</v>
       </c>
       <c r="B10" s="24">
@@ -7165,7 +7165,7 @@
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="30"/>
+      <c r="A11" s="28"/>
       <c r="B11" s="24">
         <v>5</v>
       </c>
@@ -7207,7 +7207,7 @@
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" s="30"/>
+      <c r="A12" s="28"/>
       <c r="B12" s="24">
         <v>6</v>
       </c>
@@ -7305,7 +7305,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="29" t="s">
         <v>531</v>
       </c>
       <c r="B7" s="13">
@@ -7328,7 +7328,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="28"/>
+      <c r="A8" s="29"/>
       <c r="B8" s="13">
         <v>2</v>
       </c>
@@ -7434,7 +7434,7 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="29" t="s">
         <v>88</v>
       </c>
       <c r="B7" s="19">
@@ -7484,7 +7484,7 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A8" s="28"/>
+      <c r="A8" s="29"/>
       <c r="B8" s="19">
         <v>2</v>
       </c>
@@ -7582,7 +7582,7 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A10" s="28" t="s">
+      <c r="A10" s="29" t="s">
         <v>141</v>
       </c>
       <c r="B10" s="13">
@@ -7632,7 +7632,7 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A11" s="28"/>
+      <c r="A11" s="29"/>
       <c r="B11" s="19">
         <v>5</v>
       </c>
@@ -7730,7 +7730,7 @@
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A13" s="28" t="s">
+      <c r="A13" s="29" t="s">
         <v>267</v>
       </c>
       <c r="B13" s="19">
@@ -7780,7 +7780,7 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A14" s="28"/>
+      <c r="A14" s="29"/>
       <c r="B14" s="13">
         <v>8</v>
       </c>
@@ -7828,7 +7828,7 @@
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A15" s="28" t="s">
+      <c r="A15" s="29" t="s">
         <v>295</v>
       </c>
       <c r="B15" s="19">
@@ -7878,7 +7878,7 @@
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A16" s="28"/>
+      <c r="A16" s="29"/>
       <c r="B16" s="19">
         <v>10</v>
       </c>
@@ -7926,7 +7926,7 @@
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A17" s="28" t="s">
+      <c r="A17" s="29" t="s">
         <v>325</v>
       </c>
       <c r="B17" s="19">
@@ -7976,7 +7976,7 @@
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A18" s="28"/>
+      <c r="A18" s="29"/>
       <c r="B18" s="13">
         <v>12</v>
       </c>
@@ -8074,7 +8074,7 @@
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A20" s="28" t="s">
+      <c r="A20" s="29" t="s">
         <v>402</v>
       </c>
       <c r="B20" s="19">
@@ -8124,7 +8124,7 @@
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A21" s="28"/>
+      <c r="A21" s="29"/>
       <c r="B21" s="19">
         <v>15</v>
       </c>
@@ -8222,7 +8222,7 @@
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A23" s="28" t="s">
+      <c r="A23" s="29" t="s">
         <v>478</v>
       </c>
       <c r="B23" s="19">
@@ -8272,7 +8272,7 @@
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A24" s="28"/>
+      <c r="A24" s="29"/>
       <c r="B24" s="19">
         <v>18</v>
       </c>
@@ -8320,7 +8320,7 @@
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A25" s="28"/>
+      <c r="A25" s="29"/>
       <c r="B25" s="19">
         <v>19</v>
       </c>
@@ -8418,7 +8418,7 @@
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A27" s="28" t="s">
+      <c r="A27" s="29" t="s">
         <v>174</v>
       </c>
       <c r="B27" s="19">
@@ -8468,7 +8468,7 @@
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A28" s="28"/>
+      <c r="A28" s="29"/>
       <c r="B28" s="19">
         <v>22</v>
       </c>
@@ -8516,7 +8516,7 @@
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A29" s="28"/>
+      <c r="A29" s="29"/>
       <c r="B29" s="19">
         <v>23</v>
       </c>
@@ -8564,7 +8564,7 @@
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A30" s="28"/>
+      <c r="A30" s="29"/>
       <c r="B30" s="13">
         <v>24</v>
       </c>
@@ -8612,7 +8612,7 @@
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A31" s="28" t="s">
+      <c r="A31" s="29" t="s">
         <v>531</v>
       </c>
       <c r="B31" s="19">
@@ -8662,7 +8662,7 @@
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A32" s="28"/>
+      <c r="A32" s="29"/>
       <c r="B32" s="19">
         <v>26</v>
       </c>
@@ -8710,7 +8710,7 @@
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A33" s="28" t="s">
+      <c r="A33" s="29" t="s">
         <v>555</v>
       </c>
       <c r="B33" s="19">
@@ -8760,7 +8760,7 @@
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A34" s="28"/>
+      <c r="A34" s="29"/>
       <c r="B34" s="13">
         <v>28</v>
       </c>
@@ -8808,7 +8808,7 @@
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A35" s="28"/>
+      <c r="A35" s="29"/>
       <c r="B35" s="19">
         <v>29</v>
       </c>
@@ -8856,7 +8856,7 @@
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A36" s="28" t="s">
+      <c r="A36" s="29" t="s">
         <v>593</v>
       </c>
       <c r="B36" s="19">
@@ -8906,7 +8906,7 @@
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A37" s="28"/>
+      <c r="A37" s="29"/>
       <c r="B37" s="19">
         <v>31</v>
       </c>
@@ -8954,7 +8954,7 @@
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A38" s="28"/>
+      <c r="A38" s="29"/>
       <c r="B38" s="13">
         <v>32</v>
       </c>
@@ -9002,7 +9002,7 @@
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A39" s="28"/>
+      <c r="A39" s="29"/>
       <c r="B39" s="19">
         <v>33</v>
       </c>
@@ -9050,7 +9050,7 @@
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A40" s="28" t="s">
+      <c r="A40" s="29" t="s">
         <v>629</v>
       </c>
       <c r="B40" s="19">
@@ -9100,7 +9100,7 @@
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A41" s="28"/>
+      <c r="A41" s="29"/>
       <c r="B41" s="19">
         <v>35</v>
       </c>
@@ -9148,7 +9148,7 @@
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A42" s="28"/>
+      <c r="A42" s="29"/>
       <c r="B42" s="13">
         <v>36</v>
       </c>
@@ -9196,7 +9196,7 @@
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A43" s="28"/>
+      <c r="A43" s="29"/>
       <c r="B43" s="19">
         <v>37</v>
       </c>
@@ -9244,7 +9244,7 @@
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A44" s="28" t="s">
+      <c r="A44" s="29" t="s">
         <v>658</v>
       </c>
       <c r="B44" s="19">
@@ -9294,7 +9294,7 @@
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A45" s="28"/>
+      <c r="A45" s="29"/>
       <c r="B45" s="19">
         <v>39</v>
       </c>
@@ -9393,11 +9393,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A17:A18"/>
     <mergeCell ref="A36:A39"/>
     <mergeCell ref="A40:A43"/>
     <mergeCell ref="A44:A45"/>
@@ -9406,6 +9401,11 @@
     <mergeCell ref="A27:A30"/>
     <mergeCell ref="A31:A32"/>
     <mergeCell ref="A33:A35"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A17:A18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9736,7 +9736,7 @@
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A14" s="28" t="s">
+      <c r="A14" s="29" t="s">
         <v>325</v>
       </c>
       <c r="B14" s="13">
@@ -9795,7 +9795,7 @@
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A15" s="28"/>
+      <c r="A15" s="29"/>
       <c r="B15" s="13">
         <v>6</v>
       </c>
@@ -10029,7 +10029,7 @@
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A19" s="28" t="s">
+      <c r="A19" s="29" t="s">
         <v>464</v>
       </c>
       <c r="B19" s="13">
@@ -10088,7 +10088,7 @@
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A20" s="28"/>
+      <c r="A20" s="29"/>
       <c r="B20" s="13">
         <v>11</v>
       </c>
@@ -10145,7 +10145,7 @@
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A21" s="28" t="s">
+      <c r="A21" s="29" t="s">
         <v>492</v>
       </c>
       <c r="B21" s="13">
@@ -10204,7 +10204,7 @@
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A22" s="28"/>
+      <c r="A22" s="29"/>
       <c r="B22" s="13">
         <v>13</v>
       </c>
@@ -10379,7 +10379,7 @@
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A25" s="28" t="s">
+      <c r="A25" s="29" t="s">
         <v>555</v>
       </c>
       <c r="B25" s="13">
@@ -10438,7 +10438,7 @@
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A26" s="28"/>
+      <c r="A26" s="29"/>
       <c r="B26" s="13">
         <v>17</v>
       </c>
@@ -10554,7 +10554,7 @@
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A28" s="29" t="s">
+      <c r="A28" s="30" t="s">
         <v>658</v>
       </c>
       <c r="B28" s="13">
@@ -10613,7 +10613,7 @@
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A29" s="29"/>
+      <c r="A29" s="30"/>
       <c r="B29" s="13">
         <v>20</v>
       </c>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\self_appraisal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{314693D8-3C37-4BA6-948A-C4BEEFBB2160}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6B7E8A4-9011-455F-8198-4307752D26BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3228" yWindow="1824" windowWidth="17280" windowHeight="8592" tabRatio="885" firstSheet="18" activeTab="24" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2868" yWindow="696" windowWidth="17280" windowHeight="8592" tabRatio="885" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Alumni Lecture" sheetId="1" r:id="rId1"/>
@@ -2294,7 +2294,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2379,9 +2379,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3137,7 +3134,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3675,7 +3672,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="J1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
@@ -3699,8 +3696,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A6:J23"/>
   <sheetViews>
-    <sheetView zoomScale="69" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView topLeftCell="F1" zoomScale="69" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5266,8 +5263,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
   <dimension ref="A5:L66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:A11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5283,7 +5280,7 @@
   <sheetData>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="26" t="s">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>0</v>
@@ -5472,7 +5469,7 @@
       <c r="D12" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="E12" s="31">
+      <c r="E12" s="10">
         <v>2</v>
       </c>
       <c r="F12" s="10" t="s">
@@ -6813,22 +6810,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="A25:A29"/>
-    <mergeCell ref="A31:A34"/>
-    <mergeCell ref="A35:A37"/>
-    <mergeCell ref="A39:A40"/>
     <mergeCell ref="A63:A66"/>
     <mergeCell ref="A41:A43"/>
     <mergeCell ref="A44:A45"/>
     <mergeCell ref="A46:A52"/>
     <mergeCell ref="A53:A60"/>
     <mergeCell ref="A61:A62"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="A25:A29"/>
+    <mergeCell ref="A31:A34"/>
+    <mergeCell ref="A35:A37"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="A18:A20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7363,7 +7360,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A6:P46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A8" workbookViewId="0">
       <selection activeCell="A23" sqref="A23:A25"/>
     </sheetView>
   </sheetViews>
@@ -9396,11 +9393,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A17:A18"/>
     <mergeCell ref="A36:A39"/>
     <mergeCell ref="A40:A43"/>
     <mergeCell ref="A44:A45"/>
@@ -9409,6 +9401,11 @@
     <mergeCell ref="A27:A30"/>
     <mergeCell ref="A31:A32"/>
     <mergeCell ref="A33:A35"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A17:A18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9418,8 +9415,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A9:S30"/>
   <sheetViews>
-    <sheetView topLeftCell="M7" workbookViewId="0">
-      <selection activeCell="S9" sqref="S9"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="98" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10748,7 +10745,7 @@
   <dimension ref="A6:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10901,7 +10898,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A7:M17"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
+    <sheetView topLeftCell="I6" workbookViewId="0">
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\self_appraisal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6B7E8A4-9011-455F-8198-4307752D26BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{734BA258-0E13-4AE2-9C3B-A5C850A56CF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2868" yWindow="696" windowWidth="17280" windowHeight="8592" tabRatio="885" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="885" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Alumni Lecture" sheetId="1" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1986" uniqueCount="703">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1987" uniqueCount="703">
   <si>
     <t>S.No</t>
   </si>
@@ -216,6 +216,9 @@
     <t>National or International</t>
   </si>
   <si>
+    <t xml:space="preserve">Name of the Faculty </t>
+  </si>
+  <si>
     <t>Journal Name</t>
   </si>
   <si>
@@ -2155,9 +2158,6 @@
   </si>
   <si>
     <t>Design and Develop a Website using Figma and CSS</t>
-  </si>
-  <si>
-    <t>Name of the Faculty</t>
   </si>
 </sst>
 </file>
@@ -2739,43 +2739,43 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="27" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B7" s="13">
         <v>1</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="J7" s="10">
         <v>68</v>
       </c>
       <c r="K7" s="10" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L7" s="10" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M7" s="10" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
@@ -2784,66 +2784,66 @@
         <v>2</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="J8" s="10">
         <v>135</v>
       </c>
       <c r="K8" s="10" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L8" s="10" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M8" s="10" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B9" s="13">
         <v>3</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="J9" s="10">
         <v>120</v>
@@ -2852,10 +2852,10 @@
         <v>2</v>
       </c>
       <c r="L9" s="10" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M9" s="10" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
@@ -2934,38 +2934,38 @@
         <v>0</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="20" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B7" s="19">
         <v>1</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="29" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B8" s="13">
         <v>2</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -2974,10 +2974,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
   </sheetData>
@@ -3009,19 +3009,19 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B1" s="25" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>24</v>
@@ -3038,60 +3038,60 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="B2" s="13">
         <v>1</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E2" s="10">
         <v>45</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="B3" s="24">
         <v>2</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="D3" s="23" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E3" s="23">
         <v>1</v>
       </c>
       <c r="F3" s="23" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="G3" s="23" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H3" s="23" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="I3" s="23" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -3100,25 +3100,25 @@
         <v>3</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="D4" s="23" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E4" s="23">
         <v>42</v>
       </c>
       <c r="F4" s="23" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="G4" s="23" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H4" s="23" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I4" s="23" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
   </sheetData>
@@ -3134,7 +3134,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3151,22 +3151,22 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B1" s="25" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>24</v>
@@ -3175,94 +3175,94 @@
         <v>8</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B2" s="13">
         <v>1</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E2" s="10">
         <v>6</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="20" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B3" s="13">
         <v>2</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="E3" s="10">
         <v>2</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="20" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B4" s="13">
         <v>3</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E4" s="10">
         <v>4</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
   </sheetData>
@@ -3275,7 +3275,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3289,7 +3289,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B1" s="18" t="s">
         <v>0</v>
@@ -3301,116 +3301,116 @@
         <v>8</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B2" s="8">
         <v>1</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="D2" s="23" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="20" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B3" s="13">
         <v>2</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="20" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B4" s="13"/>
       <c r="C4" s="10" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B5" s="13"/>
       <c r="C5" s="10" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="20" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="B6" s="13"/>
       <c r="C6" s="10" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="20" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="B7" s="24"/>
       <c r="C7" s="23" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="D7" s="23" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="E7" s="23" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="20" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="B8" s="24"/>
       <c r="C8" s="23" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="D8" s="23" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E8" s="23" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
     </row>
   </sheetData>
@@ -3422,7 +3422,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A5:L8"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
@@ -3482,40 +3482,40 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="29" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B6" s="13">
         <v>1</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J6" s="10" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="K6" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L6" s="10" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
@@ -3524,72 +3524,72 @@
         <v>2</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J7" s="10" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="K7" s="10" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="L7" s="10" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B8" s="13">
         <v>3</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="I8" s="10">
         <v>125</v>
       </c>
       <c r="J8" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K8" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L8" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -3631,7 +3631,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="22" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>0</v>
@@ -3648,19 +3648,19 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="B2" s="11">
         <v>1</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
     </row>
   </sheetData>
@@ -3672,7 +3672,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
@@ -3696,8 +3696,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A6:J23"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="69" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3743,98 +3743,98 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="17" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B7" s="19">
         <v>1</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="17" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B8" s="19">
         <v>2</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="29" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B9" s="13">
         <v>3</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J9" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -3843,25 +3843,25 @@
         <v>4</v>
       </c>
       <c r="C10" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="H10" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="D10" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="H10" s="10" t="s">
-        <v>180</v>
-      </c>
       <c r="I10" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J10" s="10">
         <v>135</v>
@@ -3869,34 +3869,34 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="29" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B11" s="19">
         <v>5</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="I11" s="10" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="J11" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -3905,185 +3905,185 @@
         <v>6</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="I12" s="10" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="J12" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="17" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B13" s="19">
         <v>7</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J13" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="17" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B14" s="19">
         <v>8</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="F14" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>356</v>
+      </c>
+      <c r="H14" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="G14" s="10" t="s">
-        <v>355</v>
-      </c>
-      <c r="H14" s="10" t="s">
-        <v>93</v>
-      </c>
       <c r="I14" s="10" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="J14" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B15" s="13">
         <v>9</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="J15" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="17" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B16" s="19">
         <v>10</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="H16" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I16" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J16" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="17" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B17" s="19">
         <v>11</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H17" s="10" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="I17" s="10" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="J17" s="10">
         <v>136</v>
@@ -4091,31 +4091,31 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="29" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="B18" s="13">
         <v>12</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="G18" s="10" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="H18" s="10" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="J18" s="10">
         <v>600</v>
@@ -4127,57 +4127,57 @@
         <v>13</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H19" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J19" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="17" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="B20" s="19">
         <v>14</v>
       </c>
       <c r="C20" s="23" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="D20" s="23" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E20" s="23" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F20" s="23" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G20" s="23" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="H20" s="23" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="I20" s="23" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="J20" s="23">
         <v>136</v>
@@ -4185,66 +4185,66 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="17" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="B21" s="13">
         <v>15</v>
       </c>
       <c r="C21" s="23" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="D21" s="23" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E21" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="F21" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="G21" s="23" t="s">
+        <v>614</v>
+      </c>
+      <c r="H21" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="F21" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="G21" s="23" t="s">
-        <v>613</v>
-      </c>
-      <c r="H21" s="23" t="s">
-        <v>93</v>
-      </c>
       <c r="I21" s="23" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J21" s="23" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="29" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="B22" s="19">
         <v>16</v>
       </c>
       <c r="C22" s="23" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="D22" s="23" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E22" s="23" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="F22" s="23" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G22" s="23" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="H22" s="23" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="I22" s="23" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="J22" s="23" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
@@ -4253,25 +4253,25 @@
         <v>17</v>
       </c>
       <c r="C23" s="23" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="D23" s="23" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E23" s="23" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F23" s="23" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G23" s="23" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="H23" s="23" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="I23" s="23" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="J23" s="23">
         <v>136</v>
@@ -4292,7 +4292,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A6:I29"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
@@ -4317,22 +4317,22 @@
         <v>0</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>12</v>
@@ -4340,19 +4340,19 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="15" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B7" s="6">
         <v>1</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F7" s="7">
         <v>239</v>
@@ -4364,24 +4364,24 @@
         <v>9783111395</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="15" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B8" s="11">
         <v>2</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F8" s="10">
         <v>121</v>
@@ -4393,24 +4393,24 @@
         <v>9781804339244</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B9" s="11">
         <v>3</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="F9" s="10">
         <v>189</v>
@@ -4422,7 +4422,7 @@
         <v>9783111435978</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="29" spans="4:4" x14ac:dyDescent="0.3">
@@ -4460,7 +4460,7 @@
         <v>0</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>19</v>
@@ -4472,30 +4472,30 @@
         <v>42</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B7" s="11">
         <v>1</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="F7" s="10">
         <v>6</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
   </sheetData>
@@ -4507,7 +4507,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <dimension ref="A6:H27"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
@@ -4550,28 +4550,28 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="29" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B7" s="19">
         <v>1</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G7" s="7">
         <v>450000</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -4580,22 +4580,22 @@
         <v>2</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G8" s="7">
         <v>10000</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -4604,48 +4604,48 @@
         <v>3</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G9" s="7">
         <v>350000</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="29" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B10" s="19">
         <v>4</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G10" s="7">
         <v>10000</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -4654,48 +4654,48 @@
         <v>5</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G11" s="7">
         <v>450000</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="29" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B12" s="19">
         <v>6</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G12" s="10">
         <v>510892</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
@@ -4704,74 +4704,74 @@
         <v>7</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G13" s="10">
         <v>9949</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="17" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B14" s="19">
         <v>8</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G14" s="10">
         <v>100000</v>
       </c>
       <c r="H14" s="10" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="29" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B15" s="19">
         <v>9</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="G15" s="10">
         <v>6000000</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
@@ -4780,48 +4780,48 @@
         <v>10</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="G16" s="10">
         <v>10000</v>
       </c>
       <c r="H16" s="10" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="29" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B17" s="19">
         <v>11</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="G17" s="10">
         <v>100000</v>
       </c>
       <c r="H17" s="10" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
@@ -4830,100 +4830,100 @@
         <v>12</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="G18" s="10">
         <v>10000</v>
       </c>
       <c r="H18" s="10" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="17" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B19" s="19">
         <v>13</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="G19" s="10">
         <v>55500</v>
       </c>
       <c r="H19" s="10" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B20" s="19">
         <v>14</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="G20" s="10">
         <v>500000</v>
       </c>
       <c r="H20" s="10" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="29" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B21" s="19">
         <v>15</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G21" s="10">
         <v>100000</v>
       </c>
       <c r="H21" s="10" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
@@ -4932,100 +4932,100 @@
         <v>16</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="G22" s="10">
         <v>510892</v>
       </c>
       <c r="H22" s="10" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="17" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B23" s="19">
         <v>17</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="G23" s="10">
         <v>55500</v>
       </c>
       <c r="H23" s="10" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="17" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B24" s="19">
         <v>18</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G24" s="10">
         <v>500000</v>
       </c>
       <c r="H24" s="10" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="29" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="B25" s="19">
         <v>19</v>
       </c>
       <c r="C25" s="23" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="D25" s="23" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E25" s="23" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="F25" s="23" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G25" s="23">
         <v>500000</v>
       </c>
       <c r="H25" s="23" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
@@ -5034,22 +5034,22 @@
         <v>20</v>
       </c>
       <c r="C26" s="23" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="D26" s="23" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E26" s="23" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F26" s="23" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="G26" s="23">
         <v>60000000</v>
       </c>
       <c r="H26" s="23" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
@@ -5058,22 +5058,22 @@
         <v>21</v>
       </c>
       <c r="C27" s="23" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="D27" s="23" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E27" s="23" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="F27" s="23" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="G27" s="23">
         <v>100000</v>
       </c>
       <c r="H27" s="23" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
     </row>
   </sheetData>
@@ -5169,22 +5169,22 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="20" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B6" s="13">
         <v>1</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G6" s="10">
         <v>2</v>
@@ -5198,22 +5198,22 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="20" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B7" s="13">
         <v>2</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="G7" s="10">
         <v>2</v>
@@ -5227,22 +5227,22 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="20" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B8" s="13">
         <v>3</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G8" s="10">
         <v>2</v>
@@ -5263,8 +5263,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
   <dimension ref="A5:L66"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5280,7 +5280,7 @@
   <sheetData>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="26" t="s">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>0</v>
@@ -5310,25 +5310,25 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="29" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B6" s="19">
         <v>1</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E6" s="7">
         <v>64</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H6" s="7">
         <v>54</v>
@@ -5340,19 +5340,19 @@
         <v>2</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E7" s="7">
         <v>64</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H7" s="7">
         <v>54</v>
@@ -5364,19 +5364,19 @@
         <v>3</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E8" s="7">
         <v>2</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H8" s="7">
         <v>15</v>
@@ -5384,25 +5384,25 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="29" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B9" s="19">
         <v>4</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E9" s="7">
         <v>18</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H9" s="7">
         <v>2</v>
@@ -5414,19 +5414,19 @@
         <v>5</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E10" s="7">
         <v>2</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -5438,19 +5438,19 @@
         <v>6</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E11" s="7">
         <v>5</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
@@ -5458,25 +5458,25 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="29" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B12" s="19">
         <v>7</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="E12" s="10">
-        <v>2</v>
+        <v>184</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>171</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H12" s="10">
         <v>1</v>
@@ -5488,19 +5488,19 @@
         <v>8</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E13" s="10">
         <v>56</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H13" s="10">
         <v>64</v>
@@ -5512,19 +5512,19 @@
         <v>9</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E14" s="10">
         <v>24</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="H14" s="10">
         <v>18</v>
@@ -5532,25 +5532,25 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="29" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B15" s="19">
         <v>10</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E15" s="10">
         <v>128</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="H15" s="10">
         <v>64</v>
@@ -5562,19 +5562,19 @@
         <v>11</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E16" s="10">
         <v>226</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="H16" s="10">
         <v>113</v>
@@ -5586,19 +5586,19 @@
         <v>12</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E17" s="10">
         <v>168</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="H17" s="10">
         <v>84</v>
@@ -5606,25 +5606,25 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="29" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B18" s="19">
         <v>13</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E18" s="10">
         <v>10</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G18" s="10" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H18" s="10">
         <v>1</v>
@@ -5636,19 +5636,19 @@
         <v>14</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E19" s="10">
         <v>15</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H19" s="10">
         <v>20</v>
@@ -5660,19 +5660,19 @@
         <v>15</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="E20" s="10">
         <v>8</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H20" s="10">
         <v>3</v>
@@ -5680,25 +5680,25 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="29" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B21" s="19">
         <v>16</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E21" s="10">
         <v>20</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="G21" s="10" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H21" s="10">
         <v>62</v>
@@ -5710,19 +5710,19 @@
         <v>17</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E22" s="10">
         <v>21</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H22" s="10">
         <v>1</v>
@@ -5734,19 +5734,19 @@
         <v>18</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E23" s="10">
         <v>2</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="H23" s="10">
         <v>1</v>
@@ -5758,19 +5758,19 @@
         <v>19</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E24" s="10">
         <v>1</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="G24" s="10" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="H24" s="10">
         <v>1</v>
@@ -5778,25 +5778,25 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="29" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B25" s="19">
         <v>20</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="E25" s="10">
         <v>12</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="G25" s="10" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H25" s="10">
         <v>93</v>
@@ -5808,19 +5808,19 @@
         <v>21</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="E26" s="10">
         <v>6</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H26" s="10">
         <v>1</v>
@@ -5832,19 +5832,19 @@
         <v>22</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E27" s="10">
         <v>8</v>
       </c>
       <c r="F27" s="10" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="G27" s="10" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H27" s="10">
         <v>1</v>
@@ -5856,19 +5856,19 @@
         <v>23</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="E28" s="10">
         <v>6</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H28" s="10">
         <v>1</v>
@@ -5880,19 +5880,19 @@
         <v>24</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="E29" s="10">
         <v>6</v>
       </c>
       <c r="F29" s="10" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="G29" s="10" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H29" s="10">
         <v>1</v>
@@ -5900,25 +5900,25 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="17" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B30" s="19">
         <v>25</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="E30" s="10">
         <v>8</v>
       </c>
       <c r="F30" s="10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G30" s="10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H30" s="10">
         <v>54</v>
@@ -5926,25 +5926,25 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="29" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B31" s="19">
         <v>26</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E31" s="10">
         <v>18</v>
       </c>
       <c r="F31" s="10" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="G31" s="10" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H31" s="10">
         <v>3</v>
@@ -5956,19 +5956,19 @@
         <v>27</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E32" s="10">
         <v>2</v>
       </c>
       <c r="F32" s="10" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="G32" s="10" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H32" s="10">
         <v>1</v>
@@ -5980,19 +5980,19 @@
         <v>28</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E33" s="10">
         <v>13</v>
       </c>
       <c r="F33" s="10" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="G33" s="10" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H33" s="10">
         <v>35</v>
@@ -6004,19 +6004,19 @@
         <v>29</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="E34" s="10">
         <v>8</v>
       </c>
       <c r="F34" s="10" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="G34" s="10" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H34" s="10">
         <v>54</v>
@@ -6024,25 +6024,25 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="29" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B35" s="19">
         <v>30</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E35" s="10">
         <v>18</v>
       </c>
       <c r="F35" s="10" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G35" s="10" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H35" s="10">
         <v>1</v>
@@ -6054,19 +6054,19 @@
         <v>31</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E36" s="10">
         <v>2</v>
       </c>
       <c r="F36" s="10" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="G36" s="10" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H36" s="10">
         <v>1</v>
@@ -6078,19 +6078,19 @@
         <v>32</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="E37" s="10">
         <v>40</v>
       </c>
       <c r="F37" s="10" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="G37" s="10" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H37" s="10">
         <v>48</v>
@@ -6098,25 +6098,25 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="17" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B38" s="19">
         <v>33</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E38" s="10">
         <v>60</v>
       </c>
       <c r="F38" s="10" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="G38" s="10" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H38" s="10">
         <v>54</v>
@@ -6124,25 +6124,25 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="29" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B39" s="19">
         <v>34</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="E39" s="10">
         <v>672</v>
       </c>
       <c r="F39" s="10" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="G39" s="10" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H39" s="10">
         <v>32</v>
@@ -6154,19 +6154,19 @@
         <v>35</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="E40" s="10">
         <v>12</v>
       </c>
       <c r="F40" s="10" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="G40" s="10" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="H40" s="10">
         <v>1</v>
@@ -6174,25 +6174,25 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="29" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B41" s="19">
         <v>36</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="E41" s="10">
         <v>160</v>
       </c>
       <c r="F41" s="10" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="G41" s="10" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="H41" s="10">
         <v>61</v>
@@ -6204,19 +6204,19 @@
         <v>37</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E42" s="10">
         <v>2</v>
       </c>
       <c r="F42" s="10" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="G42" s="10" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="H42" s="10">
         <v>2</v>
@@ -6228,19 +6228,19 @@
         <v>38</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E43" s="10">
         <v>18</v>
       </c>
       <c r="F43" s="10" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="G43" s="10" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="H43" s="10">
         <v>18</v>
@@ -6248,25 +6248,25 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="29" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B44" s="19">
         <v>39</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E44" s="10">
         <v>2</v>
       </c>
       <c r="F44" s="10" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="G44" s="10" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="H44" s="10">
         <v>36</v>
@@ -6278,19 +6278,19 @@
         <v>40</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E45" s="10">
         <v>18</v>
       </c>
       <c r="F45" s="10" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="G45" s="10" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="H45" s="10">
         <v>61</v>
@@ -6298,25 +6298,25 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="29" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="B46" s="19">
         <v>41</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="E46" s="10">
         <v>1</v>
       </c>
       <c r="F46" s="10" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="G46" s="10" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H46" s="10">
         <v>3</v>
@@ -6328,19 +6328,19 @@
         <v>42</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D47" s="10" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="E47" s="10">
         <v>6</v>
       </c>
       <c r="F47" s="10" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="G47" s="10" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="H47" s="10">
         <v>4</v>
@@ -6352,19 +6352,19 @@
         <v>43</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="E48" s="10">
         <v>120</v>
       </c>
       <c r="F48" s="10" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="G48" s="10" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="H48" s="10">
         <v>92</v>
@@ -6376,19 +6376,19 @@
         <v>44</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="E49" s="10">
         <v>60</v>
       </c>
       <c r="F49" s="10" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="G49" s="10" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H49" s="10">
         <v>28</v>
@@ -6400,19 +6400,19 @@
         <v>45</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E50" s="10">
         <v>21</v>
       </c>
       <c r="F50" s="10" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G50" s="10" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="H50" s="10">
         <v>15</v>
@@ -6424,19 +6424,19 @@
         <v>46</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E51" s="10">
         <v>2</v>
       </c>
       <c r="F51" s="10" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G51" s="10" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H51" s="10">
         <v>2</v>
@@ -6448,19 +6448,19 @@
         <v>47</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D52" s="10" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="E52" s="10">
         <v>28</v>
       </c>
       <c r="F52" s="10" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="G52" s="10" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="H52" s="10">
         <v>18</v>
@@ -6468,25 +6468,25 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="29" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="B53" s="19">
         <v>48</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="E53" s="10">
         <v>32</v>
       </c>
       <c r="F53" s="10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G53" s="10" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H53" s="10">
         <v>26</v>
@@ -6498,19 +6498,19 @@
         <v>49</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="E54" s="10">
         <v>64</v>
       </c>
       <c r="F54" s="10" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="G54" s="10" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H54" s="10">
         <v>54</v>
@@ -6522,19 +6522,19 @@
         <v>50</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D55" s="10" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="E55" s="10">
         <v>64</v>
       </c>
       <c r="F55" s="10" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="G55" s="10" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H55" s="10">
         <v>54</v>
@@ -6546,19 +6546,19 @@
         <v>51</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D56" s="10" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="E56" s="10">
         <v>32</v>
       </c>
       <c r="F56" s="10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G56" s="10" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H56" s="10">
         <v>26</v>
@@ -6570,19 +6570,19 @@
         <v>52</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D57" s="10" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="E57" s="10">
         <v>10</v>
       </c>
       <c r="F57" s="10" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="G57" s="10" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H57" s="10">
         <v>5</v>
@@ -6594,19 +6594,19 @@
         <v>53</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D58" s="10" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="E58" s="10">
         <v>20</v>
       </c>
       <c r="F58" s="10" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="G58" s="10" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="H58" s="10">
         <v>3</v>
@@ -6618,19 +6618,19 @@
         <v>54</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D59" s="10" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="E59" s="10">
         <v>20</v>
       </c>
       <c r="F59" s="10" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="G59" s="10" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="H59" s="10">
         <v>5</v>
@@ -6642,19 +6642,19 @@
         <v>55</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D60" s="10" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="E60" s="10">
         <v>10</v>
       </c>
       <c r="F60" s="10" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G60" s="10" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H60" s="10">
         <v>4</v>
@@ -6662,25 +6662,25 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="29" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="B61" s="19">
         <v>56</v>
       </c>
       <c r="C61" s="23" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D61" s="23" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E61" s="23">
         <v>112</v>
       </c>
       <c r="F61" s="23" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="G61" s="23" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H61" s="23">
         <v>63</v>
@@ -6692,19 +6692,19 @@
         <v>57</v>
       </c>
       <c r="C62" s="23" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D62" s="23" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E62" s="23">
         <v>104</v>
       </c>
       <c r="F62" s="23" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="G62" s="23" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H62" s="23">
         <v>32</v>
@@ -6712,25 +6712,25 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="29" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="B63" s="19">
         <v>58</v>
       </c>
       <c r="C63" s="23" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D63" s="23" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="E63" s="23">
         <v>2</v>
       </c>
       <c r="F63" s="23" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G63" s="23" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H63" s="23">
         <v>1</v>
@@ -6742,19 +6742,19 @@
         <v>59</v>
       </c>
       <c r="C64" s="23" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D64" s="23" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E64" s="23">
         <v>6</v>
       </c>
       <c r="F64" s="23" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G64" s="23" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H64" s="23">
         <v>1</v>
@@ -6766,19 +6766,19 @@
         <v>60</v>
       </c>
       <c r="C65" s="23" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D65" s="23" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E65" s="23">
         <v>36</v>
       </c>
       <c r="F65" s="23" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="G65" s="23" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="H65" s="23">
         <v>9</v>
@@ -6790,19 +6790,19 @@
         <v>61</v>
       </c>
       <c r="C66" s="23" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D66" s="23" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E66" s="23">
         <v>2</v>
       </c>
       <c r="F66" s="23" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="G66" s="23" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H66" s="23">
         <v>1</v>
@@ -6835,8 +6835,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A6:G8"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6857,16 +6857,16 @@
         <v>0</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>12</v>
@@ -6874,19 +6874,19 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="15" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B7" s="11">
         <v>1</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="F7" s="12">
         <v>9788197375224</v>
@@ -6897,25 +6897,25 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="15" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="B8" s="11">
         <v>2</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F8" s="10">
         <v>978819641437</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
   </sheetData>
@@ -6927,8 +6927,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A6:N12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:A12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6954,57 +6954,57 @@
         <v>0</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>32</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="28" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B7" s="13">
         <v>1</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="F7" s="10">
         <v>11</v>
@@ -7022,13 +7022,13 @@
         <v>235951620000</v>
       </c>
       <c r="K7" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L7" s="10">
         <v>2024</v>
       </c>
       <c r="M7" s="10" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="N7" s="10">
         <v>7</v>
@@ -7040,13 +7040,13 @@
         <v>2</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="F8" s="10">
         <v>98652300</v>
@@ -7064,13 +7064,13 @@
         <v>232097980000</v>
       </c>
       <c r="K8" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L8" s="10">
         <v>2024</v>
       </c>
       <c r="M8" s="10" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="N8" s="10">
         <v>5</v>
@@ -7078,19 +7078,19 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="21" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="B9" s="13">
         <v>3</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="F9" s="10">
         <v>12</v>
@@ -7108,13 +7108,13 @@
         <v>23209798</v>
       </c>
       <c r="K9" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L9" s="10">
         <v>2024</v>
       </c>
       <c r="M9" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N9" s="10">
         <v>83</v>
@@ -7122,19 +7122,19 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="28" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="B10" s="24">
         <v>4</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="D10" s="23" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="E10" s="23" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="F10" s="23">
         <v>23</v>
@@ -7149,19 +7149,19 @@
         <v>877</v>
       </c>
       <c r="J10" s="23" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="K10" s="23" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L10" s="23">
         <v>2024</v>
       </c>
       <c r="M10" s="23" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N10" s="23" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
@@ -7170,40 +7170,40 @@
         <v>5</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D11" s="23" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="E11" s="23" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="F11" s="23" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G11" s="23" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H11" s="23" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I11" s="23" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J11" s="23">
         <v>10689809</v>
       </c>
       <c r="K11" s="23" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L11" s="23">
         <v>2024</v>
       </c>
       <c r="M11" s="23" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="N11" s="23" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
@@ -7212,13 +7212,13 @@
         <v>6</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="D12" s="23" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="E12" s="23" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="F12" s="23">
         <v>34</v>
@@ -7236,16 +7236,16 @@
         <v>167117932024</v>
       </c>
       <c r="K12" s="23" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L12" s="23">
         <v>2024</v>
       </c>
       <c r="M12" s="23" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N12" s="23" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -7292,10 +7292,10 @@
         <v>48</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>11</v>
@@ -7306,25 +7306,25 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="29" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B7" s="13">
         <v>1</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F7" s="10" t="s">
+        <v>544</v>
+      </c>
+      <c r="G7" s="10" t="s">
         <v>543</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -7333,19 +7333,19 @@
         <v>2</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="E8" s="10" t="s">
+        <v>547</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>548</v>
+      </c>
+      <c r="G8" s="10" t="s">
         <v>546</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>547</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>545</v>
       </c>
     </row>
   </sheetData>
@@ -7360,8 +7360,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A6:P46"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:A25"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7385,7 +7385,7 @@
   <sheetData>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="17" t="s">
-        <v>702</v>
+        <v>55</v>
       </c>
       <c r="B6" s="18" t="s">
         <v>0</v>
@@ -7435,22 +7435,22 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="29" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B7" s="19">
         <v>1</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G7" s="7">
         <v>18</v>
@@ -7459,28 +7459,28 @@
         <v>0</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M7" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N7" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
@@ -7489,146 +7489,146 @@
         <v>2</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M8" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N8" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="17" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B9" s="19">
         <v>3</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="M9" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N9" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="29" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B10" s="13">
         <v>4</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J10" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K10" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L10" s="10" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M10" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N10" s="10" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="O10" s="10" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P10" s="10" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
@@ -7637,146 +7637,146 @@
         <v>5</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I11" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J11" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K11" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L11" s="10" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="M11" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N11" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O11" s="10" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="P11" s="10" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="17" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B12" s="19">
         <v>6</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I12" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J12" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K12" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L12" s="10" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M12" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N12" s="10" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="O12" s="10" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="P12" s="10" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="29" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B13" s="19">
         <v>7</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J13" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K13" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L13" s="10" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M13" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N13" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O13" s="10" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P13" s="10" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
@@ -7785,96 +7785,96 @@
         <v>8</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H14" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J14" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K14" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L14" s="10" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="M14" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N14" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O14" s="10" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="P14" s="10" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="29" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B15" s="19">
         <v>9</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J15" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K15" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L15" s="10" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M15" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N15" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O15" s="10" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="P15" s="10" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
@@ -7883,96 +7883,96 @@
         <v>10</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H16" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I16" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J16" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K16" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L16" s="10" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="M16" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N16" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O16" s="10" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="P16" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" s="29" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B17" s="19">
         <v>11</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H17" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I17" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J17" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K17" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L17" s="10" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M17" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N17" s="10" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="O17" s="10" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P17" s="10" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.3">
@@ -7981,146 +7981,146 @@
         <v>12</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G18" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H18" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J18" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K18" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L18" s="10" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="M18" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N18" s="10" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="O18" s="10" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P18" s="10" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" s="17" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B19" s="19">
         <v>13</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H19" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J19" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K19" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L19" s="10" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="M19" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N19" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O19" s="10" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P19" s="10" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" s="29" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B20" s="19">
         <v>14</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H20" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I20" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J20" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K20" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L20" s="10" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="M20" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N20" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O20" s="10" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P20" s="10" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.3">
@@ -8129,146 +8129,146 @@
         <v>15</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G21" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H21" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I21" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J21" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K21" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L21" s="10" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="M21" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N21" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O21" s="10" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P21" s="10" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" s="17" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B22" s="13">
         <v>16</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H22" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I22" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J22" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K22" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L22" s="10" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="M22" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N22" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O22" s="10" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="P22" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" s="29" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B23" s="19">
         <v>17</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H23" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I23" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J23" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K23" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L23" s="10" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="M23" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N23" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O23" s="10" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P23" s="10" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
@@ -8277,46 +8277,46 @@
         <v>18</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="G24" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H24" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I24" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J24" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K24" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L24" s="10" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="M24" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N24" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O24" s="10" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P24" s="10" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
@@ -8325,146 +8325,146 @@
         <v>19</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="G25" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H25" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I25" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J25" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K25" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L25" s="10" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="M25" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N25" s="10" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="O25" s="10" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P25" s="10" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" s="17" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B26" s="13">
         <v>20</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H26" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I26" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J26" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K26" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L26" s="10" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="M26" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N26" s="10" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="O26" s="10" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P26" s="10" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" s="29" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B27" s="19">
         <v>21</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F27" s="10" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="G27" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H27" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I27" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J27" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K27" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L27" s="10" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="M27" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N27" s="10" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="O27" s="10" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P27" s="10" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
@@ -8473,46 +8473,46 @@
         <v>22</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H28" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I28" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J28" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K28" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L28" s="10" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="M28" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N28" s="10" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="O28" s="10" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P28" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
@@ -8521,46 +8521,46 @@
         <v>23</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="F29" s="10" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="G29" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H29" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I29" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J29" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K29" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L29" s="10" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="M29" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N29" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O29" s="10" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P29" s="10" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
@@ -8569,96 +8569,96 @@
         <v>24</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F30" s="10" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="G30" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H30" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I30" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J30" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K30" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L30" s="10" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="M30" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N30" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O30" s="10" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P30" s="10" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31" s="29" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B31" s="19">
         <v>25</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F31" s="10" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="G31" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H31" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I31" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J31" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K31" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L31" s="10" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="M31" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N31" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O31" s="10" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P31" s="10" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
@@ -8667,96 +8667,96 @@
         <v>26</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="F32" s="10" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="G32" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H32" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I32" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J32" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K32" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L32" s="10" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="M32" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N32" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O32" s="10" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="P32" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33" s="29" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B33" s="19">
         <v>27</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F33" s="10" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="G33" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H33" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I33" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J33" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K33" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L33" s="10" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="M33" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N33" s="10" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="O33" s="10" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P33" s="10" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.3">
@@ -8765,46 +8765,46 @@
         <v>28</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="F34" s="10" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="G34" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H34" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I34" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J34" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K34" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L34" s="10" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="M34" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N34" s="10" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="O34" s="10" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P34" s="10" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.3">
@@ -8813,96 +8813,96 @@
         <v>29</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="F35" s="10" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="G35" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H35" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I35" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J35" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K35" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L35" s="10" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="M35" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N35" s="10" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="O35" s="10" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="P35" s="10" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A36" s="29" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="B36" s="19">
         <v>30</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F36" s="10" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G36" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H36" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I36" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J36" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K36" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L36" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M36" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N36" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O36" s="10" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="P36" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.3">
@@ -8911,46 +8911,46 @@
         <v>31</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E37" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F37" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G37" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H37" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I37" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J37" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K37" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L37" s="10" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M37" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N37" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O37" s="10" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P37" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.3">
@@ -8959,46 +8959,46 @@
         <v>32</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E38" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F38" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G38" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H38" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I38" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J38" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K38" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L38" s="10" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="M38" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N38" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O38" s="10" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P38" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.3">
@@ -9007,96 +9007,96 @@
         <v>33</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E39" s="10" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="F39" s="10" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="G39" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H39" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I39" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J39" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K39" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L39" s="10" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="M39" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N39" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O39" s="10" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P39" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A40" s="29" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="B40" s="19">
         <v>34</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E40" s="10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F40" s="10" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="G40" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H40" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I40" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J40" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K40" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L40" s="10" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="M40" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N40" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O40" s="10" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="P40" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.3">
@@ -9105,46 +9105,46 @@
         <v>35</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E41" s="10" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="F41" s="10" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="G41" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H41" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I41" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J41" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K41" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L41" s="10" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="M41" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N41" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O41" s="10" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P41" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.3">
@@ -9153,46 +9153,46 @@
         <v>36</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E42" s="10" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="F42" s="10" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="G42" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H42" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I42" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J42" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K42" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L42" s="10" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="M42" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N42" s="10" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="O42" s="10" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="P42" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.3">
@@ -9201,96 +9201,96 @@
         <v>37</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E43" s="10" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F43" s="10" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G43" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H43" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I43" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J43" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K43" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L43" s="10" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="M43" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N43" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O43" s="10" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P43" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A44" s="29" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="B44" s="19">
         <v>38</v>
       </c>
       <c r="C44" s="23" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="D44" s="23" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E44" s="23" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F44" s="23" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="G44" s="23" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H44" s="23" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I44" s="23" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J44" s="23" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K44" s="23" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L44" s="23" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="M44" s="23" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N44" s="23" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O44" s="23" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P44" s="23" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.3">
@@ -9299,96 +9299,96 @@
         <v>39</v>
       </c>
       <c r="C45" s="23" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="D45" s="23" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E45" s="23" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="F45" s="23" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="G45" s="23" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H45" s="23" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I45" s="23" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J45" s="23" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K45" s="23" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L45" s="23" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="M45" s="23" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N45" s="23" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O45" s="23" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P45" s="23" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A46" s="17" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="B46" s="13">
         <v>40</v>
       </c>
       <c r="C46" s="23" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="D46" s="23" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E46" s="23" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F46" s="23" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G46" s="23" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H46" s="23" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I46" s="23" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J46" s="23" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K46" s="23" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L46" s="23" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="M46" s="23" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N46" s="23" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O46" s="23" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P46" s="23" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -9415,8 +9415,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A9:S30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="98" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView topLeftCell="M7" workbookViewId="0">
+      <selection activeCell="S9" sqref="S9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9501,202 +9501,202 @@
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="17" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B10" s="13">
         <v>1</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H10" s="10">
         <v>68</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="J10" s="10">
         <v>0</v>
       </c>
       <c r="K10" s="10" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L10" s="10" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M10" s="10" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="N10" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O10" s="10" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="P10" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q10" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="R10" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="S10" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" s="17" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B11" s="13">
         <v>2</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D11" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="I11" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="J11" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="K11" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="L11" s="10" t="s">
         <v>217</v>
       </c>
-      <c r="E11" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="H11" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="I11" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="J11" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="K11" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="L11" s="10" t="s">
-        <v>216</v>
-      </c>
       <c r="M11" s="10" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="N11" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O11" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P11" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q11" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="R11" s="10" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="S11" s="10" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" s="17" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B12" s="13">
         <v>3</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I12" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J12" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K12" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L12" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M12" s="10" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="N12" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O12" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P12" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q12" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="R12" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="S12" s="10" t="s">
         <v>284</v>
-      </c>
-      <c r="S12" s="10" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" s="17" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B13" s="13">
         <v>4</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H13" s="10">
         <v>267</v>
@@ -9708,54 +9708,54 @@
         <v>0</v>
       </c>
       <c r="K13" s="10" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="L13" s="10" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="M13" s="10" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="N13" s="10" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="O13" s="10" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="P13" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q13" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="R13" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="S13" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" s="29" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B14" s="13">
         <v>5</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="H14" s="10">
         <v>450</v>
@@ -9767,31 +9767,31 @@
         <v>0</v>
       </c>
       <c r="K14" s="10" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="L14" s="10" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M14" s="10" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="N14" s="10" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="O14" s="10" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="P14" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q14" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="R14" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="S14" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.3">
@@ -9800,19 +9800,19 @@
         <v>6</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="H15" s="10">
         <v>132</v>
@@ -9824,54 +9824,54 @@
         <v>0</v>
       </c>
       <c r="K15" s="10" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="L15" s="10" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="M15" s="10" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="N15" s="10" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="O15" s="10" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="P15" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q15" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="R15" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="S15" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B16" s="13">
         <v>7</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="H16" s="10">
         <v>450</v>
@@ -9883,54 +9883,54 @@
         <v>0</v>
       </c>
       <c r="K16" s="10" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="L16" s="10" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="M16" s="10" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="N16" s="10" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="O16" s="10" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="P16" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q16" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="R16" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="S16" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17" s="17" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B17" s="13">
         <v>8</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="H17" s="10">
         <v>64</v>
@@ -9942,54 +9942,54 @@
         <v>0</v>
       </c>
       <c r="K17" s="10" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="L17" s="10" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="M17" s="10" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="N17" s="10" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="O17" s="10" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="P17" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q17" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="R17" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="S17" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A18" s="17" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B18" s="13">
         <v>9</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="G18" s="10" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="H18" s="10">
         <v>64</v>
@@ -10001,54 +10001,54 @@
         <v>0</v>
       </c>
       <c r="K18" s="10" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="L18" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M18" s="10" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="N18" s="10" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="O18" s="10" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="P18" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q18" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="R18" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="S18" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19" s="29" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B19" s="13">
         <v>10</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="H19" s="10">
         <v>136</v>
@@ -10060,31 +10060,31 @@
         <v>1</v>
       </c>
       <c r="K19" s="10" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="L19" s="10" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="M19" s="10" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="N19" s="10" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="O19" s="10" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="P19" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q19" s="10">
         <v>0</v>
       </c>
       <c r="R19" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="S19" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.3">
@@ -10093,19 +10093,19 @@
         <v>11</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="H20" s="10">
         <v>130</v>
@@ -10117,54 +10117,54 @@
         <v>1</v>
       </c>
       <c r="K20" s="10" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="L20" s="10" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="M20" s="10" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="N20" s="10" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="O20" s="10" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="P20" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q20" s="10">
         <v>0</v>
       </c>
       <c r="R20" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="S20" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A21" s="29" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B21" s="13">
         <v>12</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="G21" s="10" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H21" s="10">
         <v>135</v>
@@ -10176,31 +10176,31 @@
         <v>0</v>
       </c>
       <c r="K21" s="10" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="L21" s="10" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="M21" s="10" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="N21" s="10" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="O21" s="10" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="P21" s="10" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q21" s="10">
         <v>0</v>
       </c>
       <c r="R21" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="S21" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.3">
@@ -10209,19 +10209,19 @@
         <v>13</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="H22" s="10">
         <v>135</v>
@@ -10233,54 +10233,54 @@
         <v>0</v>
       </c>
       <c r="K22" s="10" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="L22" s="10" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="M22" s="10" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="N22" s="10" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="O22" s="10" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="P22" s="10" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q22" s="10">
         <v>0</v>
       </c>
       <c r="R22" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="S22" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A23" s="17" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B23" s="13">
         <v>14</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="H23" s="10">
         <v>132</v>
@@ -10292,54 +10292,54 @@
         <v>0</v>
       </c>
       <c r="K23" s="10" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="L23" s="10" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="M23" s="10" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="N23" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O23" s="10" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="P23" s="10" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="Q23" s="10">
         <v>2000</v>
       </c>
       <c r="R23" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="S23" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A24" s="17" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B24" s="13">
         <v>15</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="G24" s="10" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="H24" s="10">
         <v>136</v>
@@ -10351,54 +10351,54 @@
         <v>0</v>
       </c>
       <c r="K24" s="10" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="L24" s="10" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="M24" s="10" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="N24" s="10" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="O24" s="10" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="P24" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q24" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="R24" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="S24" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A25" s="29" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B25" s="13">
         <v>16</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="G25" s="10" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="H25" s="10">
         <v>126</v>
@@ -10410,31 +10410,31 @@
         <v>0</v>
       </c>
       <c r="K25" s="10" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="L25" s="10" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="M25" s="10" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="N25" s="10" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="O25" s="10" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="P25" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q25" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="R25" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="S25" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.3">
@@ -10443,19 +10443,19 @@
         <v>17</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="H26" s="10">
         <v>120</v>
@@ -10467,54 +10467,54 @@
         <v>0</v>
       </c>
       <c r="K26" s="10" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="L26" s="10" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="M26" s="10" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="N26" s="10" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="O26" s="10" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="P26" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q26" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="R26" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="S26" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A27" s="17" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="B27" s="13">
         <v>18</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="F27" s="10" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="G27" s="10" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="H27" s="10">
         <v>137</v>
@@ -10526,54 +10526,54 @@
         <v>0</v>
       </c>
       <c r="K27" s="10" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="L27" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M27" s="10" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="N27" s="10" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="O27" s="10" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="P27" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q27" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="R27" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="S27" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A28" s="30" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="B28" s="13">
         <v>19</v>
       </c>
       <c r="C28" s="23" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="D28" s="23" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E28" s="23" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="F28" s="23" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="G28" s="23" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="H28" s="23">
         <v>132</v>
@@ -10585,31 +10585,31 @@
         <v>2</v>
       </c>
       <c r="K28" s="23" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="L28" s="23" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M28" s="23" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="N28" s="23" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O28" s="23" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="P28" s="23" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="Q28" s="23">
         <v>2000</v>
       </c>
       <c r="R28" s="23" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="S28" s="23" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.3">
@@ -10618,19 +10618,19 @@
         <v>20</v>
       </c>
       <c r="C29" s="23" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="D29" s="23" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E29" s="23" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="F29" s="23" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="G29" s="23" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="H29" s="23">
         <v>200</v>
@@ -10639,57 +10639,57 @@
         <v>2</v>
       </c>
       <c r="J29" s="23" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K29" s="23" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="L29" s="23" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M29" s="23" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="N29" s="23" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O29" s="23" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="P29" s="23" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q29" s="23">
         <v>2000</v>
       </c>
       <c r="R29" s="23" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="S29" s="23" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A30" s="17" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="B30" s="13">
         <v>21</v>
       </c>
       <c r="C30" s="23" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="D30" s="23" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E30" s="23" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="F30" s="23" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="G30" s="23" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H30" s="23">
         <v>130</v>
@@ -10698,34 +10698,34 @@
         <v>2</v>
       </c>
       <c r="J30" s="23" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K30" s="23" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="L30" s="23" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M30" s="23" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N30" s="23" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O30" s="23" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="P30" s="23" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q30" s="23" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="R30" s="23" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="S30" s="23" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -10745,7 +10745,7 @@
   <dimension ref="A6:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10795,25 +10795,25 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="17" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B7" s="13">
         <v>1</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H7" s="10">
         <v>65</v>
@@ -10822,30 +10822,30 @@
         <v>66</v>
       </c>
       <c r="J7" s="10" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="17" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B8" s="13">
         <v>2</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E8" s="10">
         <v>201</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H8" s="10">
         <v>60</v>
@@ -10854,30 +10854,30 @@
         <v>60</v>
       </c>
       <c r="J8" s="10" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="17" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B9" s="13">
         <v>3</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H9" s="10">
         <v>85</v>
@@ -10886,7 +10886,7 @@
         <v>85</v>
       </c>
       <c r="J9" s="10" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
   </sheetData>
@@ -10898,8 +10898,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A7:M17"/>
   <sheetViews>
-    <sheetView topLeftCell="I6" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10958,412 +10958,412 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="21" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B8" s="13">
         <v>1</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J8" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K8" s="10" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="L8" s="10" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="M8" s="10" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="21" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B9" s="13">
         <v>2</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="J9" s="10" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K9" s="10" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L9" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M9" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="21" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B10" s="13">
         <v>3</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="J10" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K10" s="10" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="L10" s="10" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M10" s="10" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="21" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B11" s="13">
         <v>4</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I11" s="10" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="J11" s="10" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="K11" s="10" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="L11" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M11" s="10" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="21" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B12" s="13">
         <v>5</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I12" s="10" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="J12" s="10" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K12" s="10" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="L12" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M12" s="10" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="21" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B13" s="13">
         <v>6</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J13" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K13" s="10" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="L13" s="10" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="M13" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="21" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B14" s="13">
         <v>7</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="H14" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="J14" s="10" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="K14" s="10" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="L14" s="10" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="M14" s="10" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="21" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="B15" s="13">
         <v>8</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J15" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K15" s="10" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="L15" s="10" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="M15" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="21" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="B16" s="13">
         <v>9</v>
       </c>
       <c r="C16" s="23" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D16" s="23" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="E16" s="23" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F16" s="23" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G16" s="23" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="H16" s="23" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I16" s="23" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="J16" s="23" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="K16" s="23" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="L16" s="23" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="M16" s="23" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="21" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="B17" s="13">
         <v>10</v>
       </c>
       <c r="C17" s="23" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D17" s="23" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="E17" s="23" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F17" s="23" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G17" s="23" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="H17" s="23" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I17" s="23" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="J17" s="23" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="K17" s="23" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="L17" s="23" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="M17" s="23" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\self_appraisal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{734BA258-0E13-4AE2-9C3B-A5C850A56CF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7CA038C-2D0B-4C97-9A94-634504E5CC4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="885" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="885" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Alumni Lecture" sheetId="1" r:id="rId1"/>
@@ -6927,7 +6927,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A6:N12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7:A8"/>
     </sheetView>
   </sheetViews>
@@ -7361,7 +7361,7 @@
   <dimension ref="A6:P46"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+      <selection activeCell="A17" sqref="A17:A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9415,7 +9415,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A9:S30"/>
   <sheetViews>
-    <sheetView topLeftCell="M7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="S9" sqref="S9"/>
     </sheetView>
   </sheetViews>
@@ -10898,7 +10898,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A7:M17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\self_appraisal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7CA038C-2D0B-4C97-9A94-634504E5CC4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A1BA21C-A24E-48B4-B0C4-66863333A192}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="885" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2124" yWindow="1728" windowWidth="17280" windowHeight="8592" tabRatio="885" firstSheet="17" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Alumni Lecture" sheetId="1" r:id="rId1"/>
@@ -4507,8 +4507,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <dimension ref="A6:H27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4517,7 +4517,7 @@
     <col min="2" max="2" width="5.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="54.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="75.109375" customWidth="1"/>
     <col min="6" max="6" width="53.109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
   </cols>
@@ -5090,6 +5090,7 @@
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5263,7 +5264,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
   <dimension ref="A5:L66"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A8" workbookViewId="0">
       <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
@@ -6927,7 +6928,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A6:N12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="S1" workbookViewId="0">
       <selection activeCell="A7" sqref="A7:A8"/>
     </sheetView>
   </sheetViews>
@@ -10898,8 +10899,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A7:M17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Downloads\Consolidated\Consolidated\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\self_appraisal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13DD1A30-D147-4E7E-A7B7-28442C43DEFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{830C852F-E612-4AC0-B512-A86C062232E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8880" tabRatio="885" firstSheet="15" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="885" firstSheet="17" activeTab="22" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Alumni Lecture" sheetId="1" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1987" uniqueCount="703">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2053" uniqueCount="741">
   <si>
     <t>S.No</t>
   </si>
@@ -2158,6 +2158,120 @@
   </si>
   <si>
     <t>Design and Develop a Website using Figma and CSS</t>
+  </si>
+  <si>
+    <t>Department</t>
+  </si>
+  <si>
+    <t>Industry SPOC</t>
+  </si>
+  <si>
+    <t>Senthilkumar. K.g</t>
+  </si>
+  <si>
+    <t>BUSINESS MANAGEMENT</t>
+  </si>
+  <si>
+    <t>LEARNTURE VENTURES PVT LTD (BOARD INFINITY )</t>
+  </si>
+  <si>
+    <t>Plot No.34, 2nd Floor, AWFIS Coworking Raghuleela Mall , Sector 30A, Vashi , Navi Mumbai 400703, Maharashtra</t>
+  </si>
+  <si>
+    <t>Mr.Sumesh Nair</t>
+  </si>
+  <si>
+    <t>Approved</t>
+  </si>
+  <si>
+    <t>Stalin Durai</t>
+  </si>
+  <si>
+    <t>MECHANICAL ENGINEERING</t>
+  </si>
+  <si>
+    <t>Dev Engineering</t>
+  </si>
+  <si>
+    <t>100/1, Jagadish Nivas Building, Behind SFS School, Bengaluru - 560100.</t>
+  </si>
+  <si>
+    <t>Suganya T</t>
+  </si>
+  <si>
+    <t>Artificial Intelligence &amp; Data Science</t>
+  </si>
+  <si>
+    <t>Mahat Labs Private Ltd</t>
+  </si>
+  <si>
+    <t>36/53, Kalidas Road, Ramnagar, Coimbatore- 641009,</t>
+  </si>
+  <si>
+    <t>Mr. Ananth Srinivasan</t>
+  </si>
+  <si>
+    <t>Clover Technologies</t>
+  </si>
+  <si>
+    <t>NO:49, 3rd Floor, KTS TOWER, Athipalayam Pirivu, KRG Nagar, Ganapathy, Coimbatore, Tamil Nadu 641006,</t>
+  </si>
+  <si>
+    <t>Mr. NMK. Theyzeswarr</t>
+  </si>
+  <si>
+    <t>Swaminathan K S M</t>
+  </si>
+  <si>
+    <t>SCIENCE &amp; HUMANITIES</t>
+  </si>
+  <si>
+    <t>Society for the Advancement of Library and Information Science</t>
+  </si>
+  <si>
+    <t>32 (GF), 2nd Main Road, Sabari Nagar Extension, Mugalivakkam, Chennai, Tamil Nadu 600125.</t>
+  </si>
+  <si>
+    <t>28-08-2024</t>
+  </si>
+  <si>
+    <t>Dr Venkatachalam A M</t>
+  </si>
+  <si>
+    <t>Pending</t>
+  </si>
+  <si>
+    <t>Shirley Josephine Mary R</t>
+  </si>
+  <si>
+    <t>INFORMATION TECHNOLOGY</t>
+  </si>
+  <si>
+    <t>AECearth</t>
+  </si>
+  <si>
+    <t>#24 Corner Woods, Second Floor, Dr.Raja Gopal Road, Sanjay Nagar Main Road, Bengaluru-560094</t>
+  </si>
+  <si>
+    <t>02-11-2024</t>
+  </si>
+  <si>
+    <t>04-12-2024</t>
+  </si>
+  <si>
+    <t>Dr Karthikeyan Saminathan</t>
+  </si>
+  <si>
+    <t>Praveen H</t>
+  </si>
+  <si>
+    <t>Robbell material research centre</t>
+  </si>
+  <si>
+    <t>18/52, 1st Pulikuthi St, Sendarapatti, Gugai, Salem, Tamil Nadu 636015</t>
+  </si>
+  <si>
+    <t>Robbell material research cent</t>
   </si>
 </sst>
 </file>
@@ -2294,7 +2408,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2372,13 +2486,22 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2679,24 +2802,24 @@
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" customWidth="1"/>
-    <col min="5" max="5" width="22.5546875" customWidth="1"/>
+    <col min="1" max="1" width="19.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.6328125" customWidth="1"/>
+    <col min="3" max="3" width="15.6328125" customWidth="1"/>
+    <col min="4" max="4" width="16.08984375" customWidth="1"/>
+    <col min="5" max="5" width="22.54296875" customWidth="1"/>
     <col min="6" max="6" width="22" customWidth="1"/>
-    <col min="7" max="7" width="21.44140625" customWidth="1"/>
-    <col min="8" max="8" width="24.88671875" customWidth="1"/>
-    <col min="9" max="9" width="18.109375" customWidth="1"/>
-    <col min="10" max="10" width="27.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="35.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.88671875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="50.109375" customWidth="1"/>
+    <col min="7" max="7" width="21.453125" customWidth="1"/>
+    <col min="8" max="8" width="24.90625" customWidth="1"/>
+    <col min="9" max="9" width="18.08984375" customWidth="1"/>
+    <col min="10" max="10" width="27.90625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="35.36328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.90625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="50.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" s="14" t="s">
         <v>1</v>
       </c>
@@ -2737,7 +2860,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" s="27" t="s">
         <v>141</v>
       </c>
@@ -2778,7 +2901,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" s="27"/>
       <c r="B8" s="13">
         <v>2</v>
@@ -2817,7 +2940,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" s="15" t="s">
         <v>210</v>
       </c>
@@ -2858,7 +2981,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -2873,7 +2996,7 @@
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -2888,7 +3011,7 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -2919,14 +3042,14 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="19.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="16" t="s">
         <v>1</v>
       </c>
@@ -2940,7 +3063,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="20" t="s">
         <v>88</v>
       </c>
@@ -2954,8 +3077,8 @@
         <v>123</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="28" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="29" t="s">
         <v>210</v>
       </c>
       <c r="B8" s="13">
@@ -2968,8 +3091,8 @@
         <v>212</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="28"/>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="29"/>
       <c r="B9" s="13">
         <v>3</v>
       </c>
@@ -2996,18 +3119,18 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.90625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="17" t="s">
         <v>251</v>
       </c>
@@ -3036,7 +3159,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="17" t="s">
         <v>593</v>
       </c>
@@ -3065,8 +3188,8 @@
         <v>590</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="28" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" s="29" t="s">
         <v>629</v>
       </c>
       <c r="B3" s="24">
@@ -3094,8 +3217,8 @@
         <v>643</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="28"/>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" s="29"/>
       <c r="B4" s="24">
         <v>3</v>
       </c>
@@ -3137,19 +3260,19 @@
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.453125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="26.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="26.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.6328125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="20" t="s">
         <v>251</v>
       </c>
@@ -3178,7 +3301,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="20" t="s">
         <v>210</v>
       </c>
@@ -3207,7 +3330,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="20" t="s">
         <v>267</v>
       </c>
@@ -3236,7 +3359,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="20" t="s">
         <v>402</v>
       </c>
@@ -3278,16 +3401,16 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.453125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="20" t="s">
         <v>125</v>
       </c>
@@ -3304,7 +3427,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="20" t="s">
         <v>88</v>
       </c>
@@ -3321,7 +3444,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="20" t="s">
         <v>325</v>
       </c>
@@ -3338,7 +3461,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="20" t="s">
         <v>531</v>
       </c>
@@ -3353,7 +3476,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="20" t="s">
         <v>555</v>
       </c>
@@ -3368,7 +3491,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="20" t="s">
         <v>593</v>
       </c>
@@ -3383,7 +3506,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="20" t="s">
         <v>629</v>
       </c>
@@ -3398,7 +3521,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="20" t="s">
         <v>681</v>
       </c>
@@ -3426,23 +3549,23 @@
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.08984375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="34.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="36.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="29.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="49.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.90625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="34.90625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="36.90625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.08984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="29.6328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="49.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="17" t="s">
         <v>1</v>
       </c>
@@ -3480,8 +3603,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="28" t="s">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A6" s="29" t="s">
         <v>325</v>
       </c>
       <c r="B6" s="13">
@@ -3518,8 +3641,8 @@
         <v>340</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="28"/>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A7" s="29"/>
       <c r="B7" s="13">
         <v>2</v>
       </c>
@@ -3554,7 +3677,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" s="17" t="s">
         <v>402</v>
       </c>
@@ -3606,7 +3729,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3620,16 +3743,16 @@
       <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.08984375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.36328125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="40" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="22" t="s">
         <v>251</v>
       </c>
@@ -3646,7 +3769,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>629</v>
       </c>
@@ -3674,7 +3797,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3686,7 +3809,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3696,20 +3819,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A6:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.08984375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="87.88671875" customWidth="1"/>
+    <col min="4" max="4" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="87.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="22" t="s">
         <v>1</v>
       </c>
@@ -3741,7 +3864,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="17" t="s">
         <v>88</v>
       </c>
@@ -3773,7 +3896,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="17" t="s">
         <v>131</v>
       </c>
@@ -3805,8 +3928,8 @@
         <v>95</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="28" t="s">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9" s="29" t="s">
         <v>141</v>
       </c>
       <c r="B9" s="13">
@@ -3837,8 +3960,8 @@
         <v>95</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="28"/>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10" s="29"/>
       <c r="B10" s="19">
         <v>4</v>
       </c>
@@ -3867,8 +3990,8 @@
         <v>135</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="28" t="s">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A11" s="29" t="s">
         <v>210</v>
       </c>
       <c r="B11" s="19">
@@ -3899,8 +4022,8 @@
         <v>95</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="28"/>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A12" s="29"/>
       <c r="B12" s="13">
         <v>6</v>
       </c>
@@ -3929,7 +4052,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="17" t="s">
         <v>295</v>
       </c>
@@ -3961,7 +4084,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="17" t="s">
         <v>325</v>
       </c>
@@ -3993,7 +4116,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="17" t="s">
         <v>402</v>
       </c>
@@ -4025,7 +4148,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="17" t="s">
         <v>435</v>
       </c>
@@ -4057,7 +4180,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" s="17" t="s">
         <v>531</v>
       </c>
@@ -4089,8 +4212,8 @@
         <v>136</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="28" t="s">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A18" s="29" t="s">
         <v>593</v>
       </c>
       <c r="B18" s="13">
@@ -4121,8 +4244,8 @@
         <v>600</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="28"/>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A19" s="29"/>
       <c r="B19" s="19">
         <v>13</v>
       </c>
@@ -4151,7 +4274,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" s="17" t="s">
         <v>629</v>
       </c>
@@ -4183,7 +4306,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" s="17" t="s">
         <v>658</v>
       </c>
@@ -4215,8 +4338,8 @@
         <v>95</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="28" t="s">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A22" s="29" t="s">
         <v>681</v>
       </c>
       <c r="B22" s="19">
@@ -4247,8 +4370,8 @@
         <v>95</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="28"/>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A23" s="29"/>
       <c r="B23" s="19">
         <v>17</v>
       </c>
@@ -4296,20 +4419,20 @@
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.5546875" customWidth="1"/>
-    <col min="7" max="7" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.6640625" customWidth="1"/>
-    <col min="9" max="9" width="233.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.36328125" customWidth="1"/>
+    <col min="3" max="3" width="18.36328125" customWidth="1"/>
+    <col min="4" max="4" width="15.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.54296875" customWidth="1"/>
+    <col min="7" max="7" width="15.6328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.6328125" customWidth="1"/>
+    <col min="9" max="9" width="233.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>1</v>
       </c>
@@ -4338,7 +4461,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="15" t="s">
         <v>88</v>
       </c>
@@ -4367,7 +4490,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="15" t="s">
         <v>210</v>
       </c>
@@ -4396,7 +4519,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="15" t="s">
         <v>325</v>
       </c>
@@ -4425,7 +4548,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="29" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D29" s="15"/>
     </row>
   </sheetData>
@@ -4441,18 +4564,18 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.6640625" customWidth="1"/>
-    <col min="3" max="3" width="22.44140625" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" customWidth="1"/>
-    <col min="7" max="7" width="13.109375" customWidth="1"/>
+    <col min="1" max="1" width="19.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.6328125" customWidth="1"/>
+    <col min="3" max="3" width="22.453125" customWidth="1"/>
+    <col min="4" max="4" width="14.6328125" customWidth="1"/>
+    <col min="5" max="5" width="13.36328125" customWidth="1"/>
+    <col min="6" max="6" width="15.6328125" customWidth="1"/>
+    <col min="7" max="7" width="13.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
@@ -4475,7 +4598,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>325</v>
       </c>
@@ -4511,18 +4634,18 @@
       <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.08984375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="54.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="53.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="54.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="53.08984375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="17" t="s">
         <v>1</v>
       </c>
@@ -4548,8 +4671,8 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="28" t="s">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7" s="29" t="s">
         <v>88</v>
       </c>
       <c r="B7" s="19">
@@ -4574,8 +4697,8 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="28"/>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8" s="29"/>
       <c r="B8" s="19">
         <v>2</v>
       </c>
@@ -4598,8 +4721,8 @@
         <v>103</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="28"/>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9" s="29"/>
       <c r="B9" s="19">
         <v>3</v>
       </c>
@@ -4622,8 +4745,8 @@
         <v>107</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="28" t="s">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10" s="29" t="s">
         <v>131</v>
       </c>
       <c r="B10" s="19">
@@ -4648,8 +4771,8 @@
         <v>103</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="28"/>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11" s="29"/>
       <c r="B11" s="19">
         <v>5</v>
       </c>
@@ -4672,8 +4795,8 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="28" t="s">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12" s="29" t="s">
         <v>141</v>
       </c>
       <c r="B12" s="19">
@@ -4698,8 +4821,8 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="28"/>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13" s="29"/>
       <c r="B13" s="19">
         <v>7</v>
       </c>
@@ -4722,7 +4845,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="17" t="s">
         <v>210</v>
       </c>
@@ -4748,8 +4871,8 @@
         <v>107</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="28" t="s">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15" s="29" t="s">
         <v>267</v>
       </c>
       <c r="B15" s="19">
@@ -4774,8 +4897,8 @@
         <v>280</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="28"/>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A16" s="29"/>
       <c r="B16" s="19">
         <v>10</v>
       </c>
@@ -4798,8 +4921,8 @@
         <v>283</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="28" t="s">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A17" s="29" t="s">
         <v>295</v>
       </c>
       <c r="B17" s="19">
@@ -4824,8 +4947,8 @@
         <v>107</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="28"/>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A18" s="29"/>
       <c r="B18" s="19">
         <v>12</v>
       </c>
@@ -4848,7 +4971,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="17" t="s">
         <v>325</v>
       </c>
@@ -4874,7 +4997,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="17" t="s">
         <v>402</v>
       </c>
@@ -4900,8 +5023,8 @@
         <v>419</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="28" t="s">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A21" s="29" t="s">
         <v>174</v>
       </c>
       <c r="B21" s="19">
@@ -4926,8 +5049,8 @@
         <v>107</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="28"/>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A22" s="29"/>
       <c r="B22" s="19">
         <v>16</v>
       </c>
@@ -4950,7 +5073,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="17" t="s">
         <v>531</v>
       </c>
@@ -4976,7 +5099,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" s="17" t="s">
         <v>555</v>
       </c>
@@ -5002,8 +5125,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="28" t="s">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A25" s="29" t="s">
         <v>681</v>
       </c>
       <c r="B25" s="19">
@@ -5028,8 +5151,8 @@
         <v>419</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="28"/>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A26" s="29"/>
       <c r="B26" s="19">
         <v>20</v>
       </c>
@@ -5052,8 +5175,8 @@
         <v>280</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="28"/>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A27" s="29"/>
       <c r="B27" s="19">
         <v>21</v>
       </c>
@@ -5101,7 +5224,7 @@
       <selection activeCell="P27" sqref="P27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5109,12 +5232,271 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A6:J13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="31" t="s">
+        <v>251</v>
+      </c>
+      <c r="C6" s="31" t="s">
+        <v>703</v>
+      </c>
+      <c r="D6" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="E6" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="I6" s="31" t="s">
+        <v>704</v>
+      </c>
+      <c r="J6" s="31" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7" s="32">
+        <v>1</v>
+      </c>
+      <c r="B7" s="33" t="s">
+        <v>705</v>
+      </c>
+      <c r="C7" s="33" t="s">
+        <v>706</v>
+      </c>
+      <c r="D7" s="33" t="s">
+        <v>707</v>
+      </c>
+      <c r="E7" s="33" t="s">
+        <v>708</v>
+      </c>
+      <c r="F7" s="33" t="s">
+        <v>288</v>
+      </c>
+      <c r="G7" s="33" t="s">
+        <v>206</v>
+      </c>
+      <c r="H7" s="33">
+        <v>58</v>
+      </c>
+      <c r="I7" s="33" t="s">
+        <v>709</v>
+      </c>
+      <c r="J7" s="33" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8" s="32">
+        <v>2</v>
+      </c>
+      <c r="B8" s="33" t="s">
+        <v>711</v>
+      </c>
+      <c r="C8" s="33" t="s">
+        <v>712</v>
+      </c>
+      <c r="D8" s="33" t="s">
+        <v>713</v>
+      </c>
+      <c r="E8" s="33" t="s">
+        <v>714</v>
+      </c>
+      <c r="F8" s="33" t="s">
+        <v>95</v>
+      </c>
+      <c r="G8" s="33" t="s">
+        <v>95</v>
+      </c>
+      <c r="H8" s="33">
+        <v>1095</v>
+      </c>
+      <c r="I8" s="33" t="s">
+        <v>95</v>
+      </c>
+      <c r="J8" s="33" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9" s="32">
+        <v>3</v>
+      </c>
+      <c r="B9" s="33" t="s">
+        <v>715</v>
+      </c>
+      <c r="C9" s="33" t="s">
+        <v>716</v>
+      </c>
+      <c r="D9" s="33" t="s">
+        <v>717</v>
+      </c>
+      <c r="E9" s="33" t="s">
+        <v>718</v>
+      </c>
+      <c r="F9" s="33" t="s">
+        <v>288</v>
+      </c>
+      <c r="G9" s="33" t="s">
+        <v>288</v>
+      </c>
+      <c r="H9" s="33">
+        <v>730</v>
+      </c>
+      <c r="I9" s="33" t="s">
+        <v>719</v>
+      </c>
+      <c r="J9" s="33" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10" s="32">
+        <v>4</v>
+      </c>
+      <c r="B10" s="33" t="s">
+        <v>715</v>
+      </c>
+      <c r="C10" s="33" t="s">
+        <v>716</v>
+      </c>
+      <c r="D10" s="33" t="s">
+        <v>720</v>
+      </c>
+      <c r="E10" s="33" t="s">
+        <v>721</v>
+      </c>
+      <c r="F10" s="33" t="s">
+        <v>288</v>
+      </c>
+      <c r="G10" s="33" t="s">
+        <v>288</v>
+      </c>
+      <c r="H10" s="33">
+        <v>730</v>
+      </c>
+      <c r="I10" s="33" t="s">
+        <v>722</v>
+      </c>
+      <c r="J10" s="33" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A11" s="32">
+        <v>5</v>
+      </c>
+      <c r="B11" s="33" t="s">
+        <v>723</v>
+      </c>
+      <c r="C11" s="33" t="s">
+        <v>724</v>
+      </c>
+      <c r="D11" s="33" t="s">
+        <v>725</v>
+      </c>
+      <c r="E11" s="33" t="s">
+        <v>726</v>
+      </c>
+      <c r="F11" s="33" t="s">
+        <v>727</v>
+      </c>
+      <c r="G11" s="33" t="s">
+        <v>727</v>
+      </c>
+      <c r="H11" s="33">
+        <v>1</v>
+      </c>
+      <c r="I11" s="33" t="s">
+        <v>728</v>
+      </c>
+      <c r="J11" s="33" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A12" s="32">
+        <v>6</v>
+      </c>
+      <c r="B12" s="33" t="s">
+        <v>730</v>
+      </c>
+      <c r="C12" s="33" t="s">
+        <v>731</v>
+      </c>
+      <c r="D12" s="33" t="s">
+        <v>732</v>
+      </c>
+      <c r="E12" s="33" t="s">
+        <v>733</v>
+      </c>
+      <c r="F12" s="33" t="s">
+        <v>734</v>
+      </c>
+      <c r="G12" s="33" t="s">
+        <v>735</v>
+      </c>
+      <c r="H12" s="33">
+        <v>3</v>
+      </c>
+      <c r="I12" s="33" t="s">
+        <v>736</v>
+      </c>
+      <c r="J12" s="33" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A13" s="32">
+        <v>7</v>
+      </c>
+      <c r="B13" s="33" t="s">
+        <v>737</v>
+      </c>
+      <c r="C13" s="33" t="s">
+        <v>724</v>
+      </c>
+      <c r="D13" s="33" t="s">
+        <v>738</v>
+      </c>
+      <c r="E13" s="33" t="s">
+        <v>739</v>
+      </c>
+      <c r="F13" s="33" t="s">
+        <v>513</v>
+      </c>
+      <c r="G13" s="33" t="s">
+        <v>457</v>
+      </c>
+      <c r="H13" s="33">
+        <v>140</v>
+      </c>
+      <c r="I13" s="33" t="s">
+        <v>740</v>
+      </c>
+      <c r="J13" s="33" t="s">
+        <v>710</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5127,18 +5509,18 @@
       <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="60.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="60.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="16" t="s">
         <v>26</v>
       </c>
@@ -5167,7 +5549,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="20" t="s">
         <v>141</v>
       </c>
@@ -5196,7 +5578,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="20" t="s">
         <v>295</v>
       </c>
@@ -5225,7 +5607,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="20" t="s">
         <v>444</v>
       </c>
@@ -5267,18 +5649,18 @@
       <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="67.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.453125" customWidth="1"/>
+    <col min="3" max="3" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="67.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="26" t="s">
         <v>1</v>
       </c>
@@ -5308,8 +5690,8 @@
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="28" t="s">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A6" s="29" t="s">
         <v>88</v>
       </c>
       <c r="B6" s="19">
@@ -5334,8 +5716,8 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="28"/>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A7" s="29"/>
       <c r="B7" s="19">
         <v>2</v>
       </c>
@@ -5358,8 +5740,8 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="28"/>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A8" s="29"/>
       <c r="B8" s="19">
         <v>3</v>
       </c>
@@ -5382,8 +5764,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="28" t="s">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A9" s="29" t="s">
         <v>131</v>
       </c>
       <c r="B9" s="19">
@@ -5408,8 +5790,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="28"/>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A10" s="29"/>
       <c r="B10" s="19">
         <v>5</v>
       </c>
@@ -5432,8 +5814,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="28"/>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A11" s="29"/>
       <c r="B11" s="19">
         <v>6</v>
       </c>
@@ -5456,8 +5838,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="28" t="s">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A12" s="29" t="s">
         <v>141</v>
       </c>
       <c r="B12" s="19">
@@ -5482,8 +5864,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="28"/>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A13" s="29"/>
       <c r="B13" s="19">
         <v>8</v>
       </c>
@@ -5506,8 +5888,8 @@
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" s="28"/>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A14" s="29"/>
       <c r="B14" s="19">
         <v>9</v>
       </c>
@@ -5530,8 +5912,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="28" t="s">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A15" s="29" t="s">
         <v>210</v>
       </c>
       <c r="B15" s="19">
@@ -5556,8 +5938,8 @@
         <v>64</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="28"/>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A16" s="29"/>
       <c r="B16" s="19">
         <v>11</v>
       </c>
@@ -5580,8 +5962,8 @@
         <v>113</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="28"/>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A17" s="29"/>
       <c r="B17" s="19">
         <v>12</v>
       </c>
@@ -5604,8 +5986,8 @@
         <v>84</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="28" t="s">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A18" s="29" t="s">
         <v>267</v>
       </c>
       <c r="B18" s="19">
@@ -5630,8 +6012,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="28"/>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A19" s="29"/>
       <c r="B19" s="19">
         <v>14</v>
       </c>
@@ -5654,8 +6036,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="28"/>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A20" s="29"/>
       <c r="B20" s="19">
         <v>15</v>
       </c>
@@ -5678,8 +6060,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="28" t="s">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A21" s="29" t="s">
         <v>295</v>
       </c>
       <c r="B21" s="19">
@@ -5704,8 +6086,8 @@
         <v>62</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="28"/>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A22" s="29"/>
       <c r="B22" s="19">
         <v>17</v>
       </c>
@@ -5728,8 +6110,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="28"/>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A23" s="29"/>
       <c r="B23" s="19">
         <v>18</v>
       </c>
@@ -5752,8 +6134,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="28"/>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A24" s="29"/>
       <c r="B24" s="19">
         <v>19</v>
       </c>
@@ -5776,8 +6158,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="28" t="s">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A25" s="29" t="s">
         <v>325</v>
       </c>
       <c r="B25" s="19">
@@ -5802,8 +6184,8 @@
         <v>93</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="28"/>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A26" s="29"/>
       <c r="B26" s="19">
         <v>21</v>
       </c>
@@ -5826,8 +6208,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="28"/>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A27" s="29"/>
       <c r="B27" s="19">
         <v>22</v>
       </c>
@@ -5850,8 +6232,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="28"/>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A28" s="29"/>
       <c r="B28" s="19">
         <v>23</v>
       </c>
@@ -5874,8 +6256,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="28"/>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A29" s="29"/>
       <c r="B29" s="19">
         <v>24</v>
       </c>
@@ -5898,7 +6280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" s="17" t="s">
         <v>377</v>
       </c>
@@ -5924,8 +6306,8 @@
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="28" t="s">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A31" s="29" t="s">
         <v>402</v>
       </c>
       <c r="B31" s="19">
@@ -5950,8 +6332,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="28"/>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A32" s="29"/>
       <c r="B32" s="19">
         <v>27</v>
       </c>
@@ -5974,8 +6356,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" s="28"/>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A33" s="29"/>
       <c r="B33" s="19">
         <v>28</v>
       </c>
@@ -5998,8 +6380,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" s="28"/>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A34" s="29"/>
       <c r="B34" s="19">
         <v>29</v>
       </c>
@@ -6022,8 +6404,8 @@
         <v>54</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35" s="28" t="s">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A35" s="29" t="s">
         <v>435</v>
       </c>
       <c r="B35" s="19">
@@ -6048,8 +6430,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" s="28"/>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A36" s="29"/>
       <c r="B36" s="19">
         <v>31</v>
       </c>
@@ -6072,8 +6454,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" s="28"/>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A37" s="29"/>
       <c r="B37" s="19">
         <v>32</v>
       </c>
@@ -6096,7 +6478,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38" s="17" t="s">
         <v>464</v>
       </c>
@@ -6122,8 +6504,8 @@
         <v>54</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A39" s="28" t="s">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A39" s="29" t="s">
         <v>174</v>
       </c>
       <c r="B39" s="19">
@@ -6148,8 +6530,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A40" s="28"/>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A40" s="29"/>
       <c r="B40" s="19">
         <v>35</v>
       </c>
@@ -6172,8 +6554,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A41" s="28" t="s">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A41" s="29" t="s">
         <v>531</v>
       </c>
       <c r="B41" s="19">
@@ -6198,8 +6580,8 @@
         <v>61</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A42" s="28"/>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A42" s="29"/>
       <c r="B42" s="19">
         <v>37</v>
       </c>
@@ -6222,8 +6604,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A43" s="28"/>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A43" s="29"/>
       <c r="B43" s="19">
         <v>38</v>
       </c>
@@ -6246,8 +6628,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A44" s="28" t="s">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A44" s="29" t="s">
         <v>555</v>
       </c>
       <c r="B44" s="19">
@@ -6272,8 +6654,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A45" s="28"/>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A45" s="29"/>
       <c r="B45" s="19">
         <v>40</v>
       </c>
@@ -6296,8 +6678,8 @@
         <v>61</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A46" s="28" t="s">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A46" s="29" t="s">
         <v>593</v>
       </c>
       <c r="B46" s="19">
@@ -6322,8 +6704,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A47" s="28"/>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A47" s="29"/>
       <c r="B47" s="19">
         <v>42</v>
       </c>
@@ -6346,8 +6728,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A48" s="28"/>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A48" s="29"/>
       <c r="B48" s="19">
         <v>43</v>
       </c>
@@ -6370,8 +6752,8 @@
         <v>92</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A49" s="28"/>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A49" s="29"/>
       <c r="B49" s="19">
         <v>44</v>
       </c>
@@ -6394,8 +6776,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A50" s="28"/>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A50" s="29"/>
       <c r="B50" s="19">
         <v>45</v>
       </c>
@@ -6418,8 +6800,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A51" s="28"/>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A51" s="29"/>
       <c r="B51" s="19">
         <v>46</v>
       </c>
@@ -6442,8 +6824,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A52" s="28"/>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A52" s="29"/>
       <c r="B52" s="19">
         <v>47</v>
       </c>
@@ -6466,8 +6848,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A53" s="28" t="s">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A53" s="29" t="s">
         <v>629</v>
       </c>
       <c r="B53" s="19">
@@ -6492,8 +6874,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A54" s="28"/>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A54" s="29"/>
       <c r="B54" s="19">
         <v>49</v>
       </c>
@@ -6516,8 +6898,8 @@
         <v>54</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A55" s="28"/>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A55" s="29"/>
       <c r="B55" s="19">
         <v>50</v>
       </c>
@@ -6540,8 +6922,8 @@
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A56" s="28"/>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A56" s="29"/>
       <c r="B56" s="19">
         <v>51</v>
       </c>
@@ -6564,8 +6946,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A57" s="28"/>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A57" s="29"/>
       <c r="B57" s="19">
         <v>52</v>
       </c>
@@ -6588,8 +6970,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A58" s="28"/>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A58" s="29"/>
       <c r="B58" s="19">
         <v>53</v>
       </c>
@@ -6612,8 +6994,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A59" s="28"/>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A59" s="29"/>
       <c r="B59" s="19">
         <v>54</v>
       </c>
@@ -6636,8 +7018,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A60" s="28"/>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A60" s="29"/>
       <c r="B60" s="19">
         <v>55</v>
       </c>
@@ -6660,8 +7042,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A61" s="28" t="s">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A61" s="29" t="s">
         <v>658</v>
       </c>
       <c r="B61" s="19">
@@ -6686,8 +7068,8 @@
         <v>63</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A62" s="28"/>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A62" s="29"/>
       <c r="B62" s="19">
         <v>57</v>
       </c>
@@ -6710,8 +7092,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A63" s="28" t="s">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A63" s="29" t="s">
         <v>681</v>
       </c>
       <c r="B63" s="19">
@@ -6736,8 +7118,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A64" s="28"/>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A64" s="29"/>
       <c r="B64" s="19">
         <v>59</v>
       </c>
@@ -6760,8 +7142,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A65" s="28"/>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A65" s="29"/>
       <c r="B65" s="19">
         <v>60</v>
       </c>
@@ -6784,8 +7166,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A66" s="28"/>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A66" s="29"/>
       <c r="B66" s="19">
         <v>61</v>
       </c>
@@ -6810,22 +7192,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="A25:A29"/>
-    <mergeCell ref="A31:A34"/>
-    <mergeCell ref="A35:A37"/>
-    <mergeCell ref="A39:A40"/>
     <mergeCell ref="A63:A66"/>
     <mergeCell ref="A41:A43"/>
     <mergeCell ref="A44:A45"/>
     <mergeCell ref="A46:A52"/>
     <mergeCell ref="A53:A60"/>
     <mergeCell ref="A61:A62"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="A25:A29"/>
+    <mergeCell ref="A31:A34"/>
+    <mergeCell ref="A35:A37"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="A18:A20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6839,17 +7221,17 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="45.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="45.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="16.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
@@ -6872,7 +7254,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="15" t="s">
         <v>174</v>
       </c>
@@ -6895,7 +7277,7 @@
         <v>9788197375224</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="15" t="s">
         <v>593</v>
       </c>
@@ -6931,22 +7313,22 @@
       <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="75.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="80.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="75.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="80.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.6328125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.08984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.6328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.90625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" s="21" t="s">
         <v>1</v>
       </c>
@@ -6990,8 +7372,8 @@
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="30" t="s">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A7" s="28" t="s">
         <v>377</v>
       </c>
       <c r="B7" s="13">
@@ -7034,8 +7416,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" s="30"/>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A8" s="28"/>
       <c r="B8" s="13">
         <v>2</v>
       </c>
@@ -7076,7 +7458,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" s="21" t="s">
         <v>593</v>
       </c>
@@ -7120,8 +7502,8 @@
         <v>83</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" s="30" t="s">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A10" s="28" t="s">
         <v>681</v>
       </c>
       <c r="B10" s="24">
@@ -7164,8 +7546,8 @@
         <v>95</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="30"/>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A11" s="28"/>
       <c r="B11" s="24">
         <v>5</v>
       </c>
@@ -7206,8 +7588,8 @@
         <v>95</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" s="30"/>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A12" s="28"/>
       <c r="B12" s="24">
         <v>6</v>
       </c>
@@ -7265,23 +7647,23 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5546875" customWidth="1"/>
-    <col min="3" max="3" width="23.88671875" customWidth="1"/>
+    <col min="1" max="1" width="19.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.54296875" customWidth="1"/>
+    <col min="3" max="3" width="23.90625" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" customWidth="1"/>
-    <col min="7" max="7" width="17.88671875" customWidth="1"/>
+    <col min="5" max="5" width="11.6328125" customWidth="1"/>
+    <col min="6" max="6" width="12.453125" customWidth="1"/>
+    <col min="7" max="7" width="17.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="16" t="s">
         <v>1</v>
       </c>
@@ -7304,8 +7686,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="28" t="s">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" s="29" t="s">
         <v>531</v>
       </c>
       <c r="B7" s="13">
@@ -7327,8 +7709,8 @@
         <v>543</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="28"/>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" s="29"/>
       <c r="B8" s="13">
         <v>2</v>
       </c>
@@ -7364,26 +7746,26 @@
       <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="25.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="29.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.6328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.90625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.90625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="29.81640625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.6328125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="22" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="255.77734375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="255.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" s="17" t="s">
         <v>55</v>
       </c>
@@ -7433,8 +7815,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A7" s="28" t="s">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A7" s="29" t="s">
         <v>88</v>
       </c>
       <c r="B7" s="19">
@@ -7483,8 +7865,8 @@
         <v>112</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A8" s="28"/>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A8" s="29"/>
       <c r="B8" s="19">
         <v>2</v>
       </c>
@@ -7531,7 +7913,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A9" s="17" t="s">
         <v>131</v>
       </c>
@@ -7581,8 +7963,8 @@
         <v>134</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A10" s="28" t="s">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A10" s="29" t="s">
         <v>141</v>
       </c>
       <c r="B10" s="13">
@@ -7631,8 +8013,8 @@
         <v>150</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A11" s="28"/>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A11" s="29"/>
       <c r="B11" s="19">
         <v>5</v>
       </c>
@@ -7679,7 +8061,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A12" s="17" t="s">
         <v>210</v>
       </c>
@@ -7729,8 +8111,8 @@
         <v>216</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A13" s="28" t="s">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A13" s="29" t="s">
         <v>267</v>
       </c>
       <c r="B13" s="19">
@@ -7779,8 +8161,8 @@
         <v>263</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A14" s="28"/>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A14" s="29"/>
       <c r="B14" s="13">
         <v>8</v>
       </c>
@@ -7827,8 +8209,8 @@
         <v>266</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A15" s="28" t="s">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A15" s="29" t="s">
         <v>295</v>
       </c>
       <c r="B15" s="19">
@@ -7877,8 +8259,8 @@
         <v>298</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A16" s="28"/>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A16" s="29"/>
       <c r="B16" s="19">
         <v>10</v>
       </c>
@@ -7925,8 +8307,8 @@
         <v>95</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A17" s="28" t="s">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A17" s="29" t="s">
         <v>325</v>
       </c>
       <c r="B17" s="19">
@@ -7975,8 +8357,8 @@
         <v>328</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A18" s="28"/>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A18" s="29"/>
       <c r="B18" s="13">
         <v>12</v>
       </c>
@@ -8023,7 +8405,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A19" s="17" t="s">
         <v>377</v>
       </c>
@@ -8073,8 +8455,8 @@
         <v>386</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A20" s="28" t="s">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A20" s="29" t="s">
         <v>402</v>
       </c>
       <c r="B20" s="19">
@@ -8123,8 +8505,8 @@
         <v>399</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A21" s="28"/>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A21" s="29"/>
       <c r="B21" s="19">
         <v>15</v>
       </c>
@@ -8171,7 +8553,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A22" s="17" t="s">
         <v>444</v>
       </c>
@@ -8221,8 +8603,8 @@
         <v>95</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A23" s="28" t="s">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A23" s="29" t="s">
         <v>478</v>
       </c>
       <c r="B23" s="19">
@@ -8271,8 +8653,8 @@
         <v>468</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A24" s="28"/>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A24" s="29"/>
       <c r="B24" s="19">
         <v>18</v>
       </c>
@@ -8319,8 +8701,8 @@
         <v>472</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A25" s="28"/>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A25" s="29"/>
       <c r="B25" s="19">
         <v>19</v>
       </c>
@@ -8367,7 +8749,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A26" s="17" t="s">
         <v>492</v>
       </c>
@@ -8417,8 +8799,8 @@
         <v>496</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A27" s="28" t="s">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A27" s="29" t="s">
         <v>174</v>
       </c>
       <c r="B27" s="19">
@@ -8467,8 +8849,8 @@
         <v>473</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A28" s="28"/>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A28" s="29"/>
       <c r="B28" s="19">
         <v>22</v>
       </c>
@@ -8515,8 +8897,8 @@
         <v>95</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A29" s="28"/>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A29" s="29"/>
       <c r="B29" s="19">
         <v>23</v>
       </c>
@@ -8563,8 +8945,8 @@
         <v>505</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A30" s="28"/>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A30" s="29"/>
       <c r="B30" s="13">
         <v>24</v>
       </c>
@@ -8611,8 +8993,8 @@
         <v>508</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A31" s="28" t="s">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A31" s="29" t="s">
         <v>531</v>
       </c>
       <c r="B31" s="19">
@@ -8661,8 +9043,8 @@
         <v>529</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A32" s="28"/>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A32" s="29"/>
       <c r="B32" s="19">
         <v>26</v>
       </c>
@@ -8709,8 +9091,8 @@
         <v>95</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A33" s="28" t="s">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A33" s="29" t="s">
         <v>555</v>
       </c>
       <c r="B33" s="19">
@@ -8759,8 +9141,8 @@
         <v>560</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A34" s="28"/>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A34" s="29"/>
       <c r="B34" s="13">
         <v>28</v>
       </c>
@@ -8807,8 +9189,8 @@
         <v>563</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A35" s="28"/>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A35" s="29"/>
       <c r="B35" s="19">
         <v>29</v>
       </c>
@@ -8855,8 +9237,8 @@
         <v>566</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A36" s="28" t="s">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A36" s="29" t="s">
         <v>593</v>
       </c>
       <c r="B36" s="19">
@@ -8905,8 +9287,8 @@
         <v>95</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A37" s="28"/>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A37" s="29"/>
       <c r="B37" s="19">
         <v>31</v>
       </c>
@@ -8953,8 +9335,8 @@
         <v>95</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A38" s="28"/>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A38" s="29"/>
       <c r="B38" s="13">
         <v>32</v>
       </c>
@@ -9001,8 +9383,8 @@
         <v>95</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A39" s="28"/>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A39" s="29"/>
       <c r="B39" s="19">
         <v>33</v>
       </c>
@@ -9049,8 +9431,8 @@
         <v>95</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A40" s="28" t="s">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A40" s="29" t="s">
         <v>629</v>
       </c>
       <c r="B40" s="19">
@@ -9099,8 +9481,8 @@
         <v>95</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A41" s="28"/>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A41" s="29"/>
       <c r="B41" s="19">
         <v>35</v>
       </c>
@@ -9147,8 +9529,8 @@
         <v>95</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A42" s="28"/>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A42" s="29"/>
       <c r="B42" s="13">
         <v>36</v>
       </c>
@@ -9195,8 +9577,8 @@
         <v>95</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A43" s="28"/>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A43" s="29"/>
       <c r="B43" s="19">
         <v>37</v>
       </c>
@@ -9243,8 +9625,8 @@
         <v>95</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A44" s="28" t="s">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A44" s="29" t="s">
         <v>658</v>
       </c>
       <c r="B44" s="19">
@@ -9293,8 +9675,8 @@
         <v>95</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A45" s="28"/>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A45" s="29"/>
       <c r="B45" s="19">
         <v>39</v>
       </c>
@@ -9341,7 +9723,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A46" s="17" t="s">
         <v>681</v>
       </c>
@@ -9393,11 +9775,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A17:A18"/>
     <mergeCell ref="A36:A39"/>
     <mergeCell ref="A40:A43"/>
     <mergeCell ref="A44:A45"/>
@@ -9406,6 +9783,11 @@
     <mergeCell ref="A27:A30"/>
     <mergeCell ref="A31:A32"/>
     <mergeCell ref="A33:A35"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A17:A18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9419,28 +9801,28 @@
       <selection activeCell="S9" sqref="S9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="32.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="39.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="27.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="35.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="29.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="194.88671875" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.6328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="39.90625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.90625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="35.36328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="29.08984375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="194.90625" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.90625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="24" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="24.77734375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="24.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A9" s="16" t="s">
         <v>26</v>
       </c>
@@ -9499,7 +9881,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A10" s="17" t="s">
         <v>141</v>
       </c>
@@ -9558,7 +9940,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A11" s="17" t="s">
         <v>210</v>
       </c>
@@ -9617,7 +9999,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A12" s="17" t="s">
         <v>267</v>
       </c>
@@ -9676,7 +10058,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A13" s="17" t="s">
         <v>295</v>
       </c>
@@ -9735,8 +10117,8 @@
         <v>95</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A14" s="28" t="s">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A14" s="29" t="s">
         <v>325</v>
       </c>
       <c r="B14" s="13">
@@ -9794,8 +10176,8 @@
         <v>95</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A15" s="28"/>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A15" s="29"/>
       <c r="B15" s="13">
         <v>6</v>
       </c>
@@ -9851,7 +10233,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A16" s="17" t="s">
         <v>402</v>
       </c>
@@ -9910,7 +10292,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A17" s="17" t="s">
         <v>435</v>
       </c>
@@ -9969,7 +10351,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A18" s="17" t="s">
         <v>444</v>
       </c>
@@ -10028,8 +10410,8 @@
         <v>95</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A19" s="28" t="s">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A19" s="29" t="s">
         <v>464</v>
       </c>
       <c r="B19" s="13">
@@ -10087,8 +10469,8 @@
         <v>95</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A20" s="28"/>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A20" s="29"/>
       <c r="B20" s="13">
         <v>11</v>
       </c>
@@ -10144,8 +10526,8 @@
         <v>95</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A21" s="28" t="s">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A21" s="29" t="s">
         <v>492</v>
       </c>
       <c r="B21" s="13">
@@ -10203,8 +10585,8 @@
         <v>95</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A22" s="28"/>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A22" s="29"/>
       <c r="B22" s="13">
         <v>13</v>
       </c>
@@ -10260,7 +10642,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A23" s="17" t="s">
         <v>174</v>
       </c>
@@ -10319,7 +10701,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A24" s="17" t="s">
         <v>531</v>
       </c>
@@ -10378,8 +10760,8 @@
         <v>95</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A25" s="28" t="s">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A25" s="29" t="s">
         <v>555</v>
       </c>
       <c r="B25" s="13">
@@ -10437,8 +10819,8 @@
         <v>95</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A26" s="28"/>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A26" s="29"/>
       <c r="B26" s="13">
         <v>17</v>
       </c>
@@ -10494,7 +10876,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A27" s="17" t="s">
         <v>593</v>
       </c>
@@ -10553,8 +10935,8 @@
         <v>95</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A28" s="29" t="s">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A28" s="30" t="s">
         <v>658</v>
       </c>
       <c r="B28" s="13">
@@ -10612,8 +10994,8 @@
         <v>95</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A29" s="29"/>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A29" s="30"/>
       <c r="B29" s="13">
         <v>20</v>
       </c>
@@ -10669,7 +11051,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A30" s="17" t="s">
         <v>681</v>
       </c>
@@ -10748,20 +11130,20 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.90625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="10.36328125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="29" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="55.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.54296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="55.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="16" t="s">
         <v>33</v>
       </c>
@@ -10793,7 +11175,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="17" t="s">
         <v>210</v>
       </c>
@@ -10825,7 +11207,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="17" t="s">
         <v>325</v>
       </c>
@@ -10857,7 +11239,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="17" t="s">
         <v>531</v>
       </c>
@@ -10902,20 +11284,20 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="32.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.6328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="32.08984375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="27.6328125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="71" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" s="16" t="s">
         <v>33</v>
       </c>
@@ -10956,7 +11338,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" s="21" t="s">
         <v>141</v>
       </c>
@@ -10997,7 +11379,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" s="21" t="s">
         <v>210</v>
       </c>
@@ -11038,7 +11420,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" s="21" t="s">
         <v>295</v>
       </c>
@@ -11079,7 +11461,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" s="21" t="s">
         <v>325</v>
       </c>
@@ -11120,7 +11502,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" s="21" t="s">
         <v>377</v>
       </c>
@@ -11161,7 +11543,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" s="21" t="s">
         <v>435</v>
       </c>
@@ -11202,7 +11584,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" s="21" t="s">
         <v>555</v>
       </c>
@@ -11243,7 +11625,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" s="21" t="s">
         <v>593</v>
       </c>
@@ -11284,7 +11666,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" s="21" t="s">
         <v>629</v>
       </c>
@@ -11325,7 +11707,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17" s="21" t="s">
         <v>696</v>
       </c>
